--- a/Jon/TiemposCiudades.xlsx
+++ b/Jon/TiemposCiudades.xlsx
@@ -655,7 +655,7 @@
         <v>183.78333333333333</v>
       </c>
       <c r="AO2" t="n">
-        <v>439.4</v>
+        <v>0.0</v>
       </c>
       <c r="AP2" t="n">
         <v>133.68333333333334</v>
@@ -667,7 +667,7 @@
         <v>230.36666666666667</v>
       </c>
       <c r="AS2" t="n">
-        <v>244.96666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AT2" t="n">
         <v>310.78333333333336</v>
@@ -699,7 +699,7 @@
         <v>53</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>327.81666666666666</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -780,7 +780,7 @@
         <v>408.01666666666665</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.7</v>
+        <v>154.71666666666667</v>
       </c>
       <c r="AD3" t="n">
         <v>302.3</v>
@@ -816,7 +816,7 @@
         <v>197.05</v>
       </c>
       <c r="AO3" t="n">
-        <v>299.48333333333335</v>
+        <v>0.0</v>
       </c>
       <c r="AP3" t="n">
         <v>255.95</v>
@@ -828,7 +828,7 @@
         <v>172.03333333333333</v>
       </c>
       <c r="AS3" t="n">
-        <v>143.46666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AT3" t="n">
         <v>118.35</v>
@@ -860,10 +860,10 @@
         <v>54</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>411.76666666666665</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>105.71666666666667</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -941,7 +941,7 @@
         <v>492.28333333333336</v>
       </c>
       <c r="AC4" t="n">
-        <v>238.96666666666667</v>
+        <v>238.98333333333332</v>
       </c>
       <c r="AD4" t="n">
         <v>280.76666666666665</v>
@@ -977,7 +977,7 @@
         <v>281.31666666666666</v>
       </c>
       <c r="AO4" t="n">
-        <v>344.1666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AP4" t="n">
         <v>337.8</v>
@@ -989,7 +989,7 @@
         <v>190.31666666666666</v>
       </c>
       <c r="AS4" t="n">
-        <v>227.73333333333332</v>
+        <v>0.0</v>
       </c>
       <c r="AT4" t="n">
         <v>112.63333333333334</v>
@@ -1021,13 +1021,13 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>501.81666666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>208.81666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>176.41666666666666</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -1138,7 +1138,7 @@
         <v>357.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>239.26666666666668</v>
+        <v>0.0</v>
       </c>
       <c r="AP5" t="n">
         <v>424.43333333333334</v>
@@ -1150,7 +1150,7 @@
         <v>339.6166666666667</v>
       </c>
       <c r="AS5" t="n">
-        <v>276.98333333333335</v>
+        <v>0.0</v>
       </c>
       <c r="AT5" t="n">
         <v>261.93333333333334</v>
@@ -1182,16 +1182,16 @@
         <v>56</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0</v>
+        <v>210.6</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>204.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>288.46666666666664</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>364.6333333333333</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -1299,7 +1299,7 @@
         <v>53.45</v>
       </c>
       <c r="AO6" t="n">
-        <v>288.48333333333335</v>
+        <v>0.0</v>
       </c>
       <c r="AP6" t="n">
         <v>180.36666666666667</v>
@@ -1311,7 +1311,7 @@
         <v>248.56666666666666</v>
       </c>
       <c r="AS6" t="n">
-        <v>104.28333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AT6" t="n">
         <v>267.56666666666666</v>
@@ -1343,19 +1343,19 @@
         <v>57</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0</v>
+        <v>361.85</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>328.93333333333334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>414.06666666666666</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>367.6333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>210.93333333333334</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -1460,7 +1460,7 @@
         <v>254.35</v>
       </c>
       <c r="AO7" t="n">
-        <v>139.5</v>
+        <v>0.0</v>
       </c>
       <c r="AP7" t="n">
         <v>342.75</v>
@@ -1472,7 +1472,7 @@
         <v>398.06666666666666</v>
       </c>
       <c r="AS7" t="n">
-        <v>199.56666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AT7" t="n">
         <v>398.8833333333333</v>
@@ -1504,22 +1504,22 @@
         <v>58</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>858.3666666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>628.1333333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>586.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>746.7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>803.15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>934.4666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -1585,7 +1585,7 @@
         <v>1009.3333333333334</v>
       </c>
       <c r="AC8" t="n">
-        <v>749.3166666666667</v>
+        <v>744.75</v>
       </c>
       <c r="AD8" t="n">
         <v>853.1166666666667</v>
@@ -1621,7 +1621,7 @@
         <v>798.3666666666667</v>
       </c>
       <c r="AO8" t="n">
-        <v>905.5166666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AP8" t="n">
         <v>788.3333333333334</v>
@@ -1633,7 +1633,7 @@
         <v>640.8666666666667</v>
       </c>
       <c r="AS8" t="n">
-        <v>749.4166666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AT8" t="n">
         <v>563.35</v>
@@ -1665,25 +1665,25 @@
         <v>59</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0</v>
+        <v>306.3666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>308.8666666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>303.15</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>452.43333333333334</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>403.95</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
+        <v>553.45</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>598.2666666666667</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -1746,7 +1746,7 @@
         <v>528.1333333333333</v>
       </c>
       <c r="AC9" t="n">
-        <v>351.21666666666664</v>
+        <v>348.03333333333336</v>
       </c>
       <c r="AD9" t="n">
         <v>550.3</v>
@@ -1782,7 +1782,7 @@
         <v>391.1333333333333</v>
       </c>
       <c r="AO9" t="n">
-        <v>547.5</v>
+        <v>0.0</v>
       </c>
       <c r="AP9" t="n">
         <v>270.25</v>
@@ -1794,7 +1794,7 @@
         <v>241.91666666666666</v>
       </c>
       <c r="AS9" t="n">
-        <v>377.73333333333335</v>
+        <v>0.0</v>
       </c>
       <c r="AT9" t="n">
         <v>201.0</v>
@@ -1826,28 +1826,28 @@
         <v>60</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0</v>
+        <v>70.68333333333334</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>270.3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>354.56666666666666</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>438.53333333333336</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>150.48333333333332</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>301.5</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>860.35</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0</v>
+        <v>324.0</v>
       </c>
       <c r="J10" t="n">
         <v>0.0</v>
@@ -1943,7 +1943,7 @@
         <v>124.56666666666666</v>
       </c>
       <c r="AO10" t="n">
-        <v>380.15</v>
+        <v>0.0</v>
       </c>
       <c r="AP10" t="n">
         <v>103.96666666666667</v>
@@ -1955,7 +1955,7 @@
         <v>254.25</v>
       </c>
       <c r="AS10" t="n">
-        <v>185.75</v>
+        <v>0.0</v>
       </c>
       <c r="AT10" t="n">
         <v>323.1333333333333</v>
@@ -1987,31 +1987,31 @@
         <v>61</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0</v>
+        <v>304.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>280.3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>364.56666666666666</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0</v>
+        <v>381.25</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>153.08333333333334</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0</v>
+        <v>77.55</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>886.25</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>498.8666666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0</v>
+        <v>244.75</v>
       </c>
       <c r="K11" t="n">
         <v>0.0</v>
@@ -2104,7 +2104,7 @@
         <v>195.01666666666668</v>
       </c>
       <c r="AO11" t="n">
-        <v>154.78333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AP11" t="n">
         <v>289.25</v>
@@ -2116,7 +2116,7 @@
         <v>344.5833333333333</v>
       </c>
       <c r="AS11" t="n">
-        <v>146.08333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AT11" t="n">
         <v>349.18333333333334</v>
@@ -2148,34 +2148,34 @@
         <v>62</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0</v>
+        <v>503.51666666666665</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>365.15</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>389.43333333333334</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>266.7</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>352.6166666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>203.61666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>961.7833333333333</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>613.1666666666666</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0</v>
+        <v>444.28333333333336</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0</v>
+        <v>218.91666666666666</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
@@ -2265,7 +2265,7 @@
         <v>393.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>80.55</v>
+        <v>0.0</v>
       </c>
       <c r="AP12" t="n">
         <v>471.51666666666665</v>
@@ -2277,7 +2277,7 @@
         <v>467.68333333333334</v>
       </c>
       <c r="AS12" t="n">
-        <v>328.3333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AT12" t="n">
         <v>429.6166666666667</v>
@@ -2309,37 +2309,37 @@
         <v>63</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0</v>
+        <v>312.46666666666664</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>159.86666666666667</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>154.15</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0</v>
+        <v>303.45</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>301.6666666666667</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
+        <v>432.98333333333335</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>604.6833333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>162.53333333333333</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0</v>
+        <v>336.35</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0</v>
+        <v>383.28333333333336</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0</v>
+        <v>463.7</v>
       </c>
       <c r="M13" t="n">
         <v>0.0</v>
@@ -2390,7 +2390,7 @@
         <v>504.21666666666664</v>
       </c>
       <c r="AC13" t="n">
-        <v>244.2</v>
+        <v>239.63333333333333</v>
       </c>
       <c r="AD13" t="n">
         <v>404.2</v>
@@ -2426,7 +2426,7 @@
         <v>293.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>401.3833333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AP13" t="n">
         <v>240.61666666666667</v>
@@ -2438,7 +2438,7 @@
         <v>93.15</v>
       </c>
       <c r="AS13" t="n">
-        <v>244.28333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AT13" t="n">
         <v>54.9</v>
@@ -2470,40 +2470,40 @@
         <v>64</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0</v>
+        <v>319.1166666666667</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>131.3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>216.43333333333334</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0</v>
+        <v>241.55</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>183.7</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0</v>
+        <v>215.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>737.3333333333334</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>379.31666666666666</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0</v>
+        <v>259.9</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0</v>
+        <v>205.18333333333334</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0</v>
+        <v>276.3833333333333</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0</v>
+        <v>233.2</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -2587,7 +2587,7 @@
         <v>173.51666666666668</v>
       </c>
       <c r="AO14" t="n">
-        <v>208.3</v>
+        <v>0.0</v>
       </c>
       <c r="AP14" t="n">
         <v>240.45</v>
@@ -2599,7 +2599,7 @@
         <v>234.08333333333334</v>
       </c>
       <c r="AS14" t="n">
-        <v>86.73333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AT14" t="n">
         <v>196.0</v>
@@ -2631,43 +2631,43 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0</v>
+        <v>420.98333333333335</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>227.26666666666668</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0</v>
+        <v>312.4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0</v>
+        <v>211.55</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>287.01666666666665</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
+        <v>190.21666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>833.3</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>475.28333333333336</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0</v>
+        <v>361.76666666666665</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0</v>
+        <v>206.25</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0</v>
+        <v>160.18333333333334</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0</v>
+        <v>329.1666666666667</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0</v>
+        <v>136.06666666666666</v>
       </c>
       <c r="O15" t="n">
         <v>0.0</v>
@@ -2748,7 +2748,7 @@
         <v>276.56666666666666</v>
       </c>
       <c r="AO15" t="n">
-        <v>99.5</v>
+        <v>0.0</v>
       </c>
       <c r="AP15" t="n">
         <v>343.5</v>
@@ -2760,7 +2760,7 @@
         <v>331.1666666666667</v>
       </c>
       <c r="AS15" t="n">
-        <v>196.05</v>
+        <v>0.0</v>
       </c>
       <c r="AT15" t="n">
         <v>293.1</v>
@@ -2792,46 +2792,46 @@
         <v>66</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0</v>
+        <v>325.95</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>459.15</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>543.4166666666666</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0</v>
+        <v>619.6</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>287.4166666666667</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
+        <v>405.8333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>1060.4666666666667</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>579.2666666666667</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0</v>
+        <v>266.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0</v>
+        <v>358.35</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0</v>
+        <v>556.8333333333334</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0</v>
+        <v>555.35</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0</v>
+        <v>435.6166666666667</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0</v>
+        <v>538.6666666666666</v>
       </c>
       <c r="P16" t="n">
         <v>0.0</v>
@@ -2909,7 +2909,7 @@
         <v>297.53333333333336</v>
       </c>
       <c r="AO16" t="n">
-        <v>491.56666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AP16" t="n">
         <v>353.71666666666664</v>
@@ -2921,7 +2921,7 @@
         <v>500.8</v>
       </c>
       <c r="AS16" t="n">
-        <v>359.26666666666665</v>
+        <v>0.0</v>
       </c>
       <c r="AT16" t="n">
         <v>519.8</v>
@@ -2953,49 +2953,49 @@
         <v>67</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0</v>
+        <v>279.46666666666664</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>109.71666666666667</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>193.98333333333332</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0</v>
+        <v>296.6166666666667</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>164.66666666666666</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>299.78333333333336</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>669.55</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>310.53333333333336</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0</v>
+        <v>220.25</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0</v>
+        <v>246.3</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0</v>
+        <v>389.56666666666666</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0</v>
+        <v>164.41666666666666</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0</v>
+        <v>152.05</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0</v>
+        <v>253.06666666666666</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0</v>
+        <v>416.9</v>
       </c>
       <c r="Q17" t="n">
         <v>0.0</v>
@@ -3034,7 +3034,7 @@
         <v>368.71666666666664</v>
       </c>
       <c r="AC17" t="n">
-        <v>108.7</v>
+        <v>104.15</v>
       </c>
       <c r="AD17" t="n">
         <v>331.5</v>
@@ -3070,7 +3070,7 @@
         <v>157.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>328.68333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AP17" t="n">
         <v>181.81666666666666</v>
@@ -3082,7 +3082,7 @@
         <v>120.66666666666667</v>
       </c>
       <c r="AS17" t="n">
-        <v>108.8</v>
+        <v>0.0</v>
       </c>
       <c r="AT17" t="n">
         <v>132.1</v>
@@ -3114,52 +3114,52 @@
         <v>68</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0</v>
+        <v>347.96666666666664</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0</v>
+        <v>354.96666666666664</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>349.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0</v>
+        <v>498.55</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>445.55</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>595.05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>660.1833333333333</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0</v>
+        <v>73.5</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0</v>
+        <v>371.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0</v>
+        <v>541.55</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0</v>
+        <v>658.8</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0</v>
+        <v>212.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0</v>
+        <v>425.2</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0</v>
+        <v>522.3</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0</v>
+        <v>622.6833333333333</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0</v>
+        <v>361.28333333333336</v>
       </c>
       <c r="R18" t="n">
         <v>0.0</v>
@@ -3195,7 +3195,7 @@
         <v>575.1666666666666</v>
       </c>
       <c r="AC18" t="n">
-        <v>398.25</v>
+        <v>395.0833333333333</v>
       </c>
       <c r="AD18" t="n">
         <v>601.25</v>
@@ -3231,7 +3231,7 @@
         <v>438.1666666666667</v>
       </c>
       <c r="AO18" t="n">
-        <v>598.4333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AP18" t="n">
         <v>317.28333333333336</v>
@@ -3243,7 +3243,7 @@
         <v>292.8666666666667</v>
       </c>
       <c r="AS18" t="n">
-        <v>424.78333333333336</v>
+        <v>0.0</v>
       </c>
       <c r="AT18" t="n">
         <v>251.95</v>
@@ -3275,55 +3275,55 @@
         <v>69</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0</v>
+        <v>430.3333333333333</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>236.61666666666667</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>212.61666666666667</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0</v>
+        <v>105.85</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>296.35</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
+        <v>288.05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>784.9666666666667</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0</v>
+        <v>484.1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0</v>
+        <v>371.1166666666667</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0</v>
+        <v>303.3333333333333</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0</v>
+        <v>201.25</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0</v>
+        <v>338.0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0</v>
+        <v>167.58333333333334</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0</v>
+        <v>133.5</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0</v>
+        <v>548.5833333333334</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0</v>
+        <v>265.81666666666666</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0</v>
+        <v>535.05</v>
       </c>
       <c r="S19" t="n">
         <v>0.0</v>
@@ -3392,7 +3392,7 @@
         <v>289.76666666666665</v>
       </c>
       <c r="AO19" t="n">
-        <v>159.48333333333332</v>
+        <v>0.0</v>
       </c>
       <c r="AP19" t="n">
         <v>356.7</v>
@@ -3404,7 +3404,7 @@
         <v>344.3666666666667</v>
       </c>
       <c r="AS19" t="n">
-        <v>209.25</v>
+        <v>0.0</v>
       </c>
       <c r="AT19" t="n">
         <v>298.21666666666664</v>
@@ -3436,58 +3436,58 @@
         <v>70</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0</v>
+        <v>211.18333333333334</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>165.58333333333334</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>249.85</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0</v>
+        <v>334.0833333333333</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>105.33333333333333</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0</v>
+        <v>252.38333333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>757.3166666666667</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0</v>
+        <v>303.68333333333334</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0</v>
+        <v>151.96666666666667</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0</v>
+        <v>198.9</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0</v>
+        <v>381.15</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0</v>
+        <v>236.53333333333333</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0</v>
+        <v>150.1</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0</v>
+        <v>253.15</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0</v>
+        <v>357.56666666666666</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0</v>
+        <v>96.85</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0</v>
+        <v>350.73333333333335</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0</v>
+        <v>266.35</v>
       </c>
       <c r="T20" t="n">
         <v>0.0</v>
@@ -3517,7 +3517,7 @@
         <v>307.81666666666666</v>
       </c>
       <c r="AC20" t="n">
-        <v>54.45</v>
+        <v>51.28333333333333</v>
       </c>
       <c r="AD20" t="n">
         <v>333.31666666666666</v>
@@ -3553,7 +3553,7 @@
         <v>96.85</v>
       </c>
       <c r="AO20" t="n">
-        <v>321.1</v>
+        <v>0.0</v>
       </c>
       <c r="AP20" t="n">
         <v>96.8</v>
@@ -3565,7 +3565,7 @@
         <v>152.13333333333333</v>
       </c>
       <c r="AS20" t="n">
-        <v>80.98333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AT20" t="n">
         <v>217.56666666666666</v>
@@ -3597,61 +3597,61 @@
         <v>71</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0</v>
+        <v>69.25</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>389.9</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0</v>
+        <v>427.15</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0</v>
+        <v>558.1333333333333</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0</v>
+        <v>269.8333333333333</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0</v>
+        <v>420.8333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0</v>
+        <v>877.6833333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0</v>
+        <v>316.9166666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0</v>
+        <v>131.83333333333334</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0</v>
+        <v>361.5</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0</v>
+        <v>559.9833333333333</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0</v>
+        <v>329.98333333333335</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0</v>
+        <v>374.15</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0</v>
+        <v>477.2</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0</v>
+        <v>376.28333333333336</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0</v>
+        <v>341.2</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0</v>
+        <v>362.96666666666664</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0</v>
+        <v>490.4</v>
       </c>
       <c r="T21" t="n">
-        <v>0.0</v>
+        <v>256.18333333333334</v>
       </c>
       <c r="U21" t="n">
         <v>0.0</v>
@@ -3714,7 +3714,7 @@
         <v>244.28333333333333</v>
       </c>
       <c r="AO21" t="n">
-        <v>499.8833333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AP21" t="n">
         <v>173.23333333333332</v>
@@ -3726,7 +3726,7 @@
         <v>246.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>305.46666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="AT21" t="n">
         <v>326.93333333333334</v>
@@ -3758,64 +3758,64 @@
         <v>72</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0</v>
+        <v>479.96666666666664</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>352.8333333333333</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>397.96666666666664</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0</v>
+        <v>293.06666666666666</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0</v>
+        <v>329.05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0</v>
+        <v>180.06666666666666</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0</v>
+        <v>958.85</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0</v>
+        <v>600.8333333333334</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0</v>
+        <v>420.71666666666664</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0</v>
+        <v>195.35</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0</v>
+        <v>125.51666666666667</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0</v>
+        <v>454.73333333333335</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0</v>
+        <v>261.6333333333333</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0</v>
+        <v>152.85</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0</v>
+        <v>505.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0</v>
+        <v>382.01666666666665</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0</v>
+        <v>651.7833333333333</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0</v>
+        <v>213.3</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0</v>
+        <v>361.65</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0</v>
+        <v>540.45</v>
       </c>
       <c r="V22" t="n">
         <v>0.0</v>
@@ -3875,7 +3875,7 @@
         <v>375.0</v>
       </c>
       <c r="AO22" t="n">
-        <v>68.11666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AP22" t="n">
         <v>453.0</v>
@@ -3887,7 +3887,7 @@
         <v>462.05</v>
       </c>
       <c r="AS22" t="n">
-        <v>309.8333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AT22" t="n">
         <v>423.98333333333335</v>
@@ -3919,67 +3919,67 @@
         <v>73</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0</v>
+        <v>181.08333333333334</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>306.8833333333333</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0</v>
+        <v>317.6666666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0</v>
+        <v>466.96666666666664</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0</v>
+        <v>278.65</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0</v>
+        <v>428.15</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>751.1833333333333</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0</v>
+        <v>162.73333333333332</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>204.61666666666667</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0</v>
+        <v>374.6666666666667</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0</v>
+        <v>556.9166666666666</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0</v>
+        <v>220.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0</v>
+        <v>325.8666666666667</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0</v>
+        <v>428.9166666666667</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0</v>
+        <v>455.78333333333336</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0</v>
+        <v>253.81666666666666</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0</v>
+        <v>204.38333333333333</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0</v>
+        <v>442.1166666666667</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0</v>
+        <v>182.21666666666667</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0</v>
+        <v>189.8</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0</v>
+        <v>538.4166666666666</v>
       </c>
       <c r="W23" t="n">
         <v>0.0</v>
@@ -4000,7 +4000,7 @@
         <v>408.21666666666664</v>
       </c>
       <c r="AC23" t="n">
-        <v>231.31666666666666</v>
+        <v>228.13333333333333</v>
       </c>
       <c r="AD23" t="n">
         <v>510.1666666666667</v>
@@ -4036,7 +4036,7 @@
         <v>271.23333333333335</v>
       </c>
       <c r="AO23" t="n">
-        <v>497.95</v>
+        <v>0.0</v>
       </c>
       <c r="AP23" t="n">
         <v>150.35</v>
@@ -4048,7 +4048,7 @@
         <v>138.98333333333332</v>
       </c>
       <c r="AS23" t="n">
-        <v>257.8333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AT23" t="n">
         <v>219.4</v>
@@ -4080,70 +4080,70 @@
         <v>74</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0</v>
+        <v>378.1333333333333</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0</v>
+        <v>184.41666666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0</v>
+        <v>238.33333333333334</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0</v>
+        <v>133.43333333333334</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>244.16666666666666</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0</v>
+        <v>251.45</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0</v>
+        <v>790.45</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0</v>
+        <v>432.43333333333334</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>318.9166666666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0</v>
+        <v>267.48333333333335</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0</v>
+        <v>220.38333333333333</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0</v>
+        <v>286.31666666666666</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0</v>
+        <v>115.38333333333334</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0</v>
+        <v>86.91666666666667</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0</v>
+        <v>496.3833333333333</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0</v>
+        <v>213.61666666666667</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0</v>
+        <v>483.3666666666667</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0</v>
+        <v>65.7</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0</v>
+        <v>215.43333333333334</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0</v>
+        <v>438.6333333333333</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0</v>
+        <v>217.8</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0</v>
+        <v>392.28333333333336</v>
       </c>
       <c r="X24" t="n">
         <v>0.0</v>
@@ -4197,7 +4197,7 @@
         <v>235.68333333333334</v>
       </c>
       <c r="AO24" t="n">
-        <v>160.93333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AP24" t="n">
         <v>302.6166666666667</v>
@@ -4209,7 +4209,7 @@
         <v>290.3</v>
       </c>
       <c r="AS24" t="n">
-        <v>155.18333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AT24" t="n">
         <v>252.21666666666667</v>
@@ -4241,73 +4241,73 @@
         <v>75</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0</v>
+        <v>164.7</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0</v>
+        <v>324.21666666666664</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0</v>
+        <v>408.48333333333335</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0</v>
+        <v>484.6666666666667</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>152.48333333333332</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0</v>
+        <v>282.75</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>925.5333333333333</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>418.01666666666665</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0</v>
+        <v>105.45</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0</v>
+        <v>223.41666666666666</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0</v>
+        <v>421.9</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0</v>
+        <v>420.4166666666667</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0</v>
+        <v>300.68333333333334</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0</v>
+        <v>403.73333333333335</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0</v>
+        <v>181.51666666666668</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0</v>
+        <v>284.9166666666667</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0</v>
+        <v>465.05</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0</v>
+        <v>416.93333333333334</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0</v>
+        <v>224.01666666666668</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0</v>
+        <v>225.18333333333334</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0</v>
+        <v>403.4</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0</v>
+        <v>298.1166666666667</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0</v>
+        <v>362.85</v>
       </c>
       <c r="Y25" t="n">
         <v>0.0</v>
@@ -4358,7 +4358,7 @@
         <v>166.55</v>
       </c>
       <c r="AO25" t="n">
-        <v>360.5833333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AP25" t="n">
         <v>196.83333333333334</v>
@@ -4370,7 +4370,7 @@
         <v>347.1166666666667</v>
       </c>
       <c r="AS25" t="n">
-        <v>228.28333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AT25" t="n">
         <v>388.81666666666666</v>
@@ -4402,76 +4402,76 @@
         <v>76</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0</v>
+        <v>219.1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0</v>
+        <v>305.06666666666666</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0</v>
+        <v>299.35</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0</v>
+        <v>448.65</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0</v>
+        <v>316.68333333333334</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0</v>
+        <v>466.18333333333334</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>691.3666666666667</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0</v>
+        <v>102.9</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0</v>
+        <v>242.63333333333333</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0</v>
+        <v>412.7</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0</v>
+        <v>594.95</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0</v>
+        <v>163.0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0</v>
+        <v>363.9</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0</v>
+        <v>466.95</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0</v>
+        <v>493.81666666666666</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0</v>
+        <v>291.15</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0</v>
+        <v>144.56666666666666</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0</v>
+        <v>480.15</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0</v>
+        <v>220.25</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0</v>
+        <v>235.23333333333332</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0</v>
+        <v>576.45</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0</v>
+        <v>74.53333333333333</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0</v>
+        <v>426.06666666666666</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0</v>
+        <v>336.93333333333334</v>
       </c>
       <c r="Z26" t="n">
         <v>0.0</v>
@@ -4483,7 +4483,7 @@
         <v>445.85</v>
       </c>
       <c r="AC26" t="n">
-        <v>268.93333333333334</v>
+        <v>265.76666666666665</v>
       </c>
       <c r="AD26" t="n">
         <v>547.8</v>
@@ -4519,7 +4519,7 @@
         <v>308.8666666666667</v>
       </c>
       <c r="AO26" t="n">
-        <v>535.5833333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AP26" t="n">
         <v>187.96666666666667</v>
@@ -4531,7 +4531,7 @@
         <v>176.25</v>
       </c>
       <c r="AS26" t="n">
-        <v>295.46666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="AT26" t="n">
         <v>202.98333333333332</v>
@@ -4563,79 +4563,79 @@
         <v>77</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0</v>
+        <v>61.05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0</v>
+        <v>334.5833333333333</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0</v>
+        <v>364.95</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0</v>
+        <v>503.06666666666666</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0</v>
+        <v>222.58333333333334</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0</v>
+        <v>373.5833333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0</v>
+        <v>815.4833333333333</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0</v>
+        <v>254.7</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0</v>
+        <v>84.58333333333333</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0</v>
+        <v>314.25</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0</v>
+        <v>512.7333333333333</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0</v>
+        <v>267.76666666666665</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0</v>
+        <v>319.0833333333333</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0</v>
+        <v>422.1333333333333</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0</v>
+        <v>335.76666666666665</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0</v>
+        <v>260.45</v>
       </c>
       <c r="R27" t="n">
-        <v>0.0</v>
+        <v>301.73333333333335</v>
       </c>
       <c r="S27" t="n">
-        <v>0.0</v>
+        <v>435.3333333333333</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0</v>
+        <v>175.43333333333334</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0</v>
+        <v>109.3</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0</v>
+        <v>494.23333333333335</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0</v>
+        <v>134.8</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0</v>
+        <v>381.26666666666665</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0</v>
+        <v>178.88333333333333</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.0</v>
+        <v>172.43333333333334</v>
       </c>
       <c r="AA27" t="n">
         <v>0.0</v>
@@ -4644,7 +4644,7 @@
         <v>287.68333333333334</v>
       </c>
       <c r="AC27" t="n">
-        <v>225.48333333333332</v>
+        <v>222.31666666666666</v>
       </c>
       <c r="AD27" t="n">
         <v>504.35</v>
@@ -4680,7 +4680,7 @@
         <v>196.66666666666666</v>
       </c>
       <c r="AO27" t="n">
-        <v>452.26666666666665</v>
+        <v>0.0</v>
       </c>
       <c r="AP27" t="n">
         <v>85.2</v>
@@ -4692,7 +4692,7 @@
         <v>183.71666666666667</v>
       </c>
       <c r="AS27" t="n">
-        <v>252.01666666666668</v>
+        <v>0.0</v>
       </c>
       <c r="AT27" t="n">
         <v>264.15</v>
@@ -4724,82 +4724,82 @@
         <v>78</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0</v>
+        <v>274.81666666666666</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0</v>
+        <v>408.01666666666665</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0</v>
+        <v>492.28333333333336</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0</v>
+        <v>568.4666666666667</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>236.3</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0</v>
+        <v>366.55</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0</v>
+        <v>1009.3333333333334</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0</v>
+        <v>528.1333333333333</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0</v>
+        <v>215.56666666666666</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0</v>
+        <v>307.21666666666664</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0</v>
+        <v>505.7</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0</v>
+        <v>504.21666666666664</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0</v>
+        <v>384.48333333333335</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0</v>
+        <v>487.53333333333336</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0</v>
+        <v>65.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0</v>
+        <v>368.71666666666664</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0</v>
+        <v>575.1666666666666</v>
       </c>
       <c r="S28" t="n">
-        <v>0.0</v>
+        <v>500.73333333333335</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0</v>
+        <v>307.81666666666666</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0</v>
+        <v>335.3</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0</v>
+        <v>487.2</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0</v>
+        <v>408.21666666666664</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0</v>
+        <v>446.65</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0</v>
+        <v>133.01666666666668</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.0</v>
+        <v>445.85</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0</v>
+        <v>287.68333333333334</v>
       </c>
       <c r="AB28" t="n">
         <v>0.0</v>
@@ -4841,7 +4841,7 @@
         <v>250.46666666666667</v>
       </c>
       <c r="AO28" t="n">
-        <v>444.5</v>
+        <v>0.0</v>
       </c>
       <c r="AP28" t="n">
         <v>306.6333333333333</v>
@@ -4853,7 +4853,7 @@
         <v>453.73333333333335</v>
       </c>
       <c r="AS28" t="n">
-        <v>312.18333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AT28" t="n">
         <v>472.71666666666664</v>
@@ -4885,85 +4885,85 @@
         <v>79</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0</v>
+        <v>208.65</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0</v>
+        <v>154.71666666666667</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0</v>
+        <v>238.98333333333332</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0</v>
+        <v>315.23333333333335</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>76.13333333333334</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0</v>
+        <v>225.21666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0</v>
+        <v>744.75</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0</v>
+        <v>348.03333333333336</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0</v>
+        <v>149.45</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0</v>
+        <v>171.73333333333332</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0</v>
+        <v>353.98333333333335</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0</v>
+        <v>239.63333333333333</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0</v>
+        <v>131.25</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0</v>
+        <v>234.3</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0</v>
+        <v>328.3666666666667</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0</v>
+        <v>104.15</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0</v>
+        <v>395.0833333333333</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0</v>
+        <v>247.5</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0</v>
+        <v>51.28333333333333</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0</v>
+        <v>269.15</v>
       </c>
       <c r="V29" t="n">
-        <v>0.0</v>
+        <v>335.48333333333335</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0</v>
+        <v>228.13333333333333</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0</v>
+        <v>193.41666666666666</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0</v>
+        <v>197.38333333333333</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0</v>
+        <v>265.76666666666665</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.0</v>
+        <v>222.31666666666666</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.0</v>
+        <v>281.28333333333336</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
@@ -5002,7 +5002,7 @@
         <v>70.53333333333333</v>
       </c>
       <c r="AO29" t="n">
-        <v>291.1666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AP29" t="n">
         <v>134.9</v>
@@ -5014,7 +5014,7 @@
         <v>190.23333333333332</v>
       </c>
       <c r="AS29" t="n">
-        <v>54.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT29" t="n">
         <v>204.28333333333333</v>
@@ -5046,88 +5046,88 @@
         <v>80</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0</v>
+        <v>496.01666666666665</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0</v>
+        <v>302.3</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0</v>
+        <v>280.76666666666665</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0</v>
+        <v>126.56666666666666</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0</v>
+        <v>362.03333333333336</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0</v>
+        <v>267.8333333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0</v>
+        <v>853.1166666666667</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0</v>
+        <v>550.3</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0</v>
+        <v>436.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0</v>
+        <v>283.1166666666667</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0</v>
+        <v>155.9</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0</v>
+        <v>404.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0</v>
+        <v>221.16666666666666</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0</v>
+        <v>112.38333333333334</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0</v>
+        <v>614.2666666666667</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0</v>
+        <v>331.5</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0</v>
+        <v>601.25</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0</v>
+        <v>96.1</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0</v>
+        <v>333.31666666666666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0</v>
+        <v>556.5166666666667</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0</v>
+        <v>193.78333333333333</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0</v>
+        <v>510.1666666666667</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0</v>
+        <v>128.36666666666667</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.0</v>
+        <v>483.28333333333336</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0</v>
+        <v>547.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.0</v>
+        <v>504.35</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.0</v>
+        <v>567.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.0</v>
+        <v>309.65</v>
       </c>
       <c r="AD30" t="n">
         <v>0.0</v>
@@ -5163,7 +5163,7 @@
         <v>353.01666666666665</v>
       </c>
       <c r="AO30" t="n">
-        <v>137.48333333333332</v>
+        <v>0.0</v>
       </c>
       <c r="AP30" t="n">
         <v>419.95</v>
@@ -5175,7 +5175,7 @@
         <v>407.6333333333333</v>
       </c>
       <c r="AS30" t="n">
-        <v>272.51666666666665</v>
+        <v>0.0</v>
       </c>
       <c r="AT30" t="n">
         <v>365.81666666666666</v>
@@ -5207,91 +5207,91 @@
         <v>81</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0</v>
+        <v>397.01666666666665</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0</v>
+        <v>88.88333333333334</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0</v>
+        <v>56.483333333333334</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0</v>
+        <v>130.7</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0</v>
+        <v>273.31666666666666</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0</v>
+        <v>397.1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0</v>
+        <v>628.8333333333334</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0</v>
+        <v>327.96666666666664</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0</v>
+        <v>337.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0</v>
+        <v>349.35</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0</v>
+        <v>341.78333333333336</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0</v>
+        <v>181.86666666666667</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0</v>
+        <v>194.23333333333332</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0</v>
+        <v>273.01666666666665</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0</v>
+        <v>525.55</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0</v>
+        <v>177.43333333333334</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0</v>
+        <v>378.9166666666667</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0</v>
+        <v>167.0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0</v>
+        <v>233.58333333333334</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0</v>
+        <v>454.21666666666664</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0</v>
+        <v>354.55</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0</v>
+        <v>346.7</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0</v>
+        <v>193.78333333333333</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0</v>
+        <v>394.56666666666666</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0</v>
+        <v>329.95</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.0</v>
+        <v>391.43333333333334</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.0</v>
+        <v>478.46666666666664</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.0</v>
+        <v>218.95</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.0</v>
+        <v>234.6</v>
       </c>
       <c r="AE31" t="n">
         <v>0.0</v>
@@ -5324,7 +5324,7 @@
         <v>263.21666666666664</v>
       </c>
       <c r="AO31" t="n">
-        <v>298.45</v>
+        <v>0.0</v>
       </c>
       <c r="AP31" t="n">
         <v>322.1166666666667</v>
@@ -5336,7 +5336,7 @@
         <v>218.9</v>
       </c>
       <c r="AS31" t="n">
-        <v>209.63333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AT31" t="n">
         <v>141.2</v>
@@ -5368,94 +5368,94 @@
         <v>82</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0</v>
+        <v>64.93333333333334</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0</v>
+        <v>362.1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0</v>
+        <v>372.8833333333333</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0</v>
+        <v>522.1833333333333</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0</v>
+        <v>264.3333333333333</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0</v>
+        <v>415.3333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0</v>
+        <v>823.4166666666666</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0</v>
+        <v>262.6333333333333</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0</v>
+        <v>126.33333333333333</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0</v>
+        <v>356.0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0</v>
+        <v>554.4833333333333</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0</v>
+        <v>275.71666666666664</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0</v>
+        <v>345.56666666666666</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0</v>
+        <v>448.6166666666667</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0</v>
+        <v>377.51666666666665</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.0</v>
+        <v>286.93333333333334</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0</v>
+        <v>309.6666666666667</v>
       </c>
       <c r="S32" t="n">
-        <v>0.0</v>
+        <v>461.81666666666666</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0</v>
+        <v>201.91666666666666</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0</v>
+        <v>66.26666666666667</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0</v>
+        <v>535.9833333333333</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0</v>
+        <v>136.21666666666667</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0</v>
+        <v>407.73333333333335</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0</v>
+        <v>220.63333333333333</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.0</v>
+        <v>180.36666666666667</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.0</v>
+        <v>58.8</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.0</v>
+        <v>330.43333333333334</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.0</v>
+        <v>240.01666666666668</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.0</v>
+        <v>525.0666666666667</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.0</v>
+        <v>401.45</v>
       </c>
       <c r="AF32" t="n">
         <v>0.0</v>
@@ -5485,7 +5485,7 @@
         <v>240.18333333333334</v>
       </c>
       <c r="AO32" t="n">
-        <v>495.8</v>
+        <v>0.0</v>
       </c>
       <c r="AP32" t="n">
         <v>117.5</v>
@@ -5497,7 +5497,7 @@
         <v>190.76666666666668</v>
       </c>
       <c r="AS32" t="n">
-        <v>278.5833333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AT32" t="n">
         <v>271.2</v>
@@ -5529,97 +5529,97 @@
         <v>83</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0</v>
+        <v>302.6</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0</v>
+        <v>407.6</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0</v>
+        <v>491.8666666666667</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0</v>
+        <v>568.05</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>235.88333333333333</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0</v>
+        <v>346.43333333333334</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0</v>
+        <v>1008.9166666666666</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0</v>
+        <v>555.9166666666666</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0</v>
+        <v>243.35</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0</v>
+        <v>299.18333333333334</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0</v>
+        <v>497.68333333333334</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0</v>
+        <v>503.8</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0</v>
+        <v>384.06666666666666</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0</v>
+        <v>482.68333333333334</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0</v>
+        <v>105.91666666666667</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0</v>
+        <v>368.31666666666666</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0</v>
+        <v>602.95</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0</v>
+        <v>500.31666666666666</v>
       </c>
       <c r="T33" t="n">
-        <v>0.0</v>
+        <v>307.4</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0</v>
+        <v>363.0833333333333</v>
       </c>
       <c r="V33" t="n">
-        <v>0.0</v>
+        <v>456.23333333333335</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0</v>
+        <v>436.0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0</v>
+        <v>446.23333333333335</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.0</v>
+        <v>168.76666666666668</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0</v>
+        <v>473.6333333333333</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.0</v>
+        <v>315.46666666666664</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.0</v>
+        <v>87.51666666666667</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.0</v>
+        <v>281.0833333333333</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.0</v>
+        <v>560.2666666666667</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.0</v>
+        <v>473.76666666666665</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.0</v>
+        <v>358.98333333333335</v>
       </c>
       <c r="AG33" t="n">
         <v>0.0</v>
@@ -5646,7 +5646,7 @@
         <v>248.66666666666666</v>
       </c>
       <c r="AO33" t="n">
-        <v>434.3333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AP33" t="n">
         <v>324.48333333333335</v>
@@ -5658,7 +5658,7 @@
         <v>451.93333333333334</v>
       </c>
       <c r="AS33" t="n">
-        <v>310.3833333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AT33" t="n">
         <v>470.9166666666667</v>
@@ -5690,100 +5690,100 @@
         <v>84</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0</v>
+        <v>204.76666666666668</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0</v>
+        <v>384.51666666666665</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0</v>
+        <v>468.78333333333336</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0</v>
+        <v>544.9666666666667</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0</v>
+        <v>212.8</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0</v>
+        <v>343.05</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0</v>
+        <v>985.8333333333334</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0</v>
+        <v>480.55</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0</v>
+        <v>168.0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0</v>
+        <v>283.71666666666664</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0</v>
+        <v>482.2</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0</v>
+        <v>480.71666666666664</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0</v>
+        <v>360.98333333333335</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0</v>
+        <v>464.03333333333336</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0</v>
+        <v>166.96666666666667</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0</v>
+        <v>345.23333333333335</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0</v>
+        <v>527.5833333333334</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0</v>
+        <v>477.23333333333335</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0</v>
+        <v>284.31666666666666</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0</v>
+        <v>233.18333333333334</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0</v>
+        <v>463.7</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0</v>
+        <v>360.65</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0</v>
+        <v>423.15</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0</v>
+        <v>86.65</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0</v>
+        <v>398.28333333333336</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.0</v>
+        <v>240.11666666666667</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.0</v>
+        <v>147.63333333333333</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.0</v>
+        <v>258.0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.0</v>
+        <v>540.4833333333333</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.0</v>
+        <v>450.68333333333334</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.0</v>
+        <v>262.25</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.0</v>
+        <v>219.25</v>
       </c>
       <c r="AH34" t="n">
         <v>0.0</v>
@@ -5807,7 +5807,7 @@
         <v>226.43333333333334</v>
       </c>
       <c r="AO34" t="n">
-        <v>420.46666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="AP34" t="n">
         <v>258.06666666666666</v>
@@ -5819,7 +5819,7 @@
         <v>408.35</v>
       </c>
       <c r="AS34" t="n">
-        <v>288.15</v>
+        <v>0.0</v>
       </c>
       <c r="AT34" t="n">
         <v>448.68333333333334</v>
@@ -5851,103 +5851,103 @@
         <v>85</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0</v>
+        <v>115.95</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0</v>
+        <v>282.8666666666667</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0</v>
+        <v>367.1333333333333</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0</v>
+        <v>443.31666666666666</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0</v>
+        <v>111.13333333333334</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0</v>
+        <v>262.15</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0</v>
+        <v>879.5</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0</v>
+        <v>369.26666666666665</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0</v>
+        <v>56.71666666666667</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0</v>
+        <v>202.81666666666666</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0</v>
+        <v>401.3</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0</v>
+        <v>359.78333333333336</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0</v>
+        <v>259.3333333333333</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0</v>
+        <v>362.3666666666667</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0</v>
+        <v>249.98333333333332</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0</v>
+        <v>238.88333333333333</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0</v>
+        <v>416.3</v>
       </c>
       <c r="S35" t="n">
-        <v>0.0</v>
+        <v>375.56666666666666</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0</v>
+        <v>171.33333333333334</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0</v>
+        <v>176.45</v>
       </c>
       <c r="V35" t="n">
-        <v>0.0</v>
+        <v>382.8</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0</v>
+        <v>249.36666666666667</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0</v>
+        <v>321.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.0</v>
+        <v>93.11666666666666</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.0</v>
+        <v>287.0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.0</v>
+        <v>128.83333333333334</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.0</v>
+        <v>202.91666666666666</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.0</v>
+        <v>156.35</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.0</v>
+        <v>438.8333333333333</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.0</v>
+        <v>349.03333333333336</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.0</v>
+        <v>172.35</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.0</v>
+        <v>204.83333333333334</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.0</v>
+        <v>154.33333333333334</v>
       </c>
       <c r="AI35" t="n">
         <v>0.0</v>
@@ -5968,7 +5968,7 @@
         <v>99.65</v>
       </c>
       <c r="AO35" t="n">
-        <v>339.35</v>
+        <v>0.0</v>
       </c>
       <c r="AP35" t="n">
         <v>144.43333333333334</v>
@@ -5980,7 +5980,7 @@
         <v>279.35</v>
       </c>
       <c r="AS35" t="n">
-        <v>185.53333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AT35" t="n">
         <v>341.55</v>
@@ -6012,106 +6012,106 @@
         <v>86</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0</v>
+        <v>2537.0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0</v>
+        <v>2409.866666666667</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0</v>
+        <v>2455.0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0</v>
+        <v>2350.1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0</v>
+        <v>2386.0833333333335</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0</v>
+        <v>2237.1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0</v>
+        <v>3015.883333333333</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0</v>
+        <v>2657.866666666667</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0</v>
+        <v>2477.75</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0</v>
+        <v>2252.383333333333</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0</v>
+        <v>2182.55</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0</v>
+        <v>2511.766666666667</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0</v>
+        <v>2318.6666666666665</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0</v>
+        <v>2209.883333333333</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0</v>
+        <v>2564.516666666667</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0</v>
+        <v>2439.0666666666666</v>
       </c>
       <c r="R36" t="n">
-        <v>0.0</v>
+        <v>2708.8166666666666</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0</v>
+        <v>2270.3333333333335</v>
       </c>
       <c r="T36" t="n">
-        <v>0.0</v>
+        <v>2418.6833333333334</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0</v>
+        <v>2597.483333333333</v>
       </c>
       <c r="V36" t="n">
-        <v>0.0</v>
+        <v>2069.7</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0</v>
+        <v>2595.55</v>
       </c>
       <c r="X36" t="n">
-        <v>0.0</v>
+        <v>2271.3166666666666</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.0</v>
+        <v>2458.1833333333334</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.0</v>
+        <v>2633.1833333333334</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.0</v>
+        <v>2549.866666666667</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.0</v>
+        <v>2542.1</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.0</v>
+        <v>2388.75</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.0</v>
+        <v>2248.3333333333335</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.0</v>
+        <v>2409.3</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.0</v>
+        <v>2593.4</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.0</v>
+        <v>2517.0666666666666</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.0</v>
+        <v>2518.0666666666666</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.0</v>
+        <v>2436.95</v>
       </c>
       <c r="AJ36" t="n">
         <v>0.0</v>
@@ -6120,52 +6120,52 @@
         <v>2490.383333333333</v>
       </c>
       <c r="AL36" t="n">
-        <v>2347.2</v>
+        <v>0.0</v>
       </c>
       <c r="AM36" t="n">
-        <v>2539.5</v>
+        <v>0.0</v>
       </c>
       <c r="AN36" t="n">
-        <v>2425.8166666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AO36" t="n">
-        <v>2118.95</v>
+        <v>0.0</v>
       </c>
       <c r="AP36" t="n">
-        <v>2503.8333333333335</v>
+        <v>0.0</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2599.366666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AR36" t="n">
-        <v>2512.883333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2360.6666666666665</v>
+        <v>0.0</v>
       </c>
       <c r="AT36" t="n">
-        <v>2474.8</v>
+        <v>0.0</v>
       </c>
       <c r="AU36" t="n">
-        <v>2410.35</v>
+        <v>0.0</v>
       </c>
       <c r="AV36" t="n">
-        <v>2558.1</v>
+        <v>0.0</v>
       </c>
       <c r="AW36" t="n">
-        <v>2385.1833333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AX36" t="n">
-        <v>2552.866666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AY36" t="n">
-        <v>2344.5333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AZ36" t="n">
-        <v>2740.1666666666665</v>
+        <v>0.0</v>
       </c>
       <c r="BA36" t="n">
-        <v>418.85</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -6173,160 +6173,160 @@
         <v>87</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0</v>
+        <v>369.4166666666667</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0</v>
+        <v>474.4166666666667</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0</v>
+        <v>558.6833333333333</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0</v>
+        <v>634.8666666666667</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0</v>
+        <v>302.7</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0</v>
+        <v>333.0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0</v>
+        <v>1075.75</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0</v>
+        <v>622.7333333333333</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0</v>
+        <v>310.1666666666667</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0</v>
+        <v>364.01666666666665</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0</v>
+        <v>520.0166666666667</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0</v>
+        <v>570.6166666666667</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0</v>
+        <v>450.8833333333333</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0</v>
+        <v>505.01666666666665</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0</v>
+        <v>84.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0</v>
+        <v>435.1333333333333</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0</v>
+        <v>669.7666666666667</v>
       </c>
       <c r="S37" t="n">
-        <v>0.0</v>
+        <v>567.1333333333333</v>
       </c>
       <c r="T37" t="n">
-        <v>0.0</v>
+        <v>374.21666666666664</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0</v>
+        <v>431.95</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0</v>
+        <v>435.55</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0</v>
+        <v>502.8333333333333</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0</v>
+        <v>513.05</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.0</v>
+        <v>235.58333333333334</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.0</v>
+        <v>540.45</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.0</v>
+        <v>382.28333333333336</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.0</v>
+        <v>122.03333333333333</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.0</v>
+        <v>347.9</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.0</v>
+        <v>582.6</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.0</v>
+        <v>540.5833333333334</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.0</v>
+        <v>425.81666666666666</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.0</v>
+        <v>83.45</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.0</v>
+        <v>226.61666666666667</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.0</v>
+        <v>271.1666666666667</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.0</v>
+        <v>2490.383333333333</v>
       </c>
       <c r="AK37" t="n">
         <v>0.0</v>
       </c>
       <c r="AL37" t="n">
-        <v>261.8333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AM37" t="n">
-        <v>318.21666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="AN37" t="n">
-        <v>316.95</v>
+        <v>0.0</v>
       </c>
       <c r="AO37" t="n">
-        <v>456.8833333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AP37" t="n">
-        <v>392.78333333333336</v>
+        <v>0.0</v>
       </c>
       <c r="AQ37" t="n">
-        <v>587.7166666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AR37" t="n">
-        <v>520.2166666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AS37" t="n">
-        <v>378.68333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AT37" t="n">
-        <v>539.2166666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AU37" t="n">
-        <v>261.5833333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AV37" t="n">
-        <v>369.3333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AW37" t="n">
-        <v>234.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX37" t="n">
-        <v>466.76666666666665</v>
+        <v>0.0</v>
       </c>
       <c r="AY37" t="n">
-        <v>685.1333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AZ37" t="n">
-        <v>1051.35</v>
+        <v>0.0</v>
       </c>
       <c r="BA37" t="n">
-        <v>2903.116666666667</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
@@ -6334,106 +6334,106 @@
         <v>88</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0</v>
+        <v>197.43333333333334</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0</v>
+        <v>260.71666666666664</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0</v>
+        <v>344.98333333333335</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0</v>
+        <v>421.15</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0</v>
+        <v>66.76666666666667</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0</v>
+        <v>175.71666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0</v>
+        <v>862.0333333333333</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0</v>
+        <v>450.75</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0</v>
+        <v>138.2</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0</v>
+        <v>116.38333333333334</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0</v>
+        <v>314.8833333333333</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0</v>
+        <v>356.9</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0</v>
+        <v>243.1</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0</v>
+        <v>299.8833333333333</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0</v>
+        <v>250.78333333333333</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0</v>
+        <v>221.41666666666666</v>
       </c>
       <c r="R38" t="n">
-        <v>0.0</v>
+        <v>497.78333333333336</v>
       </c>
       <c r="S38" t="n">
-        <v>0.0</v>
+        <v>353.4166666666667</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0</v>
+        <v>160.51666666666668</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0</v>
+        <v>257.93333333333334</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0</v>
+        <v>296.3666666666667</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0</v>
+        <v>330.85</v>
       </c>
       <c r="X38" t="n">
-        <v>0.0</v>
+        <v>299.35</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.0</v>
+        <v>119.8</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.0</v>
+        <v>368.48333333333335</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.0</v>
+        <v>210.31666666666666</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.0</v>
+        <v>203.7</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.0</v>
+        <v>134.18333333333334</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.0</v>
+        <v>377.46666666666664</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.0</v>
+        <v>326.8833333333333</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.0</v>
+        <v>253.83333333333334</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.0</v>
+        <v>193.53333333333333</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.0</v>
+        <v>179.66666666666666</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.0</v>
+        <v>97.38333333333334</v>
       </c>
       <c r="AJ38" t="n">
         <v>0.0</v>
@@ -6445,49 +6445,49 @@
         <v>0.0</v>
       </c>
       <c r="AM38" t="n">
-        <v>202.73333333333332</v>
+        <v>0.0</v>
       </c>
       <c r="AN38" t="n">
-        <v>109.56666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AO38" t="n">
-        <v>253.3</v>
+        <v>0.0</v>
       </c>
       <c r="AP38" t="n">
-        <v>204.76666666666668</v>
+        <v>0.0</v>
       </c>
       <c r="AQ38" t="n">
-        <v>412.6</v>
+        <v>0.0</v>
       </c>
       <c r="AR38" t="n">
-        <v>304.68333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AS38" t="n">
-        <v>161.66666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AT38" t="n">
-        <v>323.6666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AU38" t="n">
-        <v>73.58333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AV38" t="n">
-        <v>221.31666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AW38" t="n">
-        <v>49.233333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AX38" t="n">
-        <v>291.65</v>
+        <v>0.0</v>
       </c>
       <c r="AY38" t="n">
-        <v>481.56666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AZ38" t="n">
-        <v>835.8166666666667</v>
+        <v>0.0</v>
       </c>
       <c r="BA38" t="n">
-        <v>2759.116666666667</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -6495,106 +6495,106 @@
         <v>89</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0</v>
+        <v>105.56666666666666</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0</v>
+        <v>384.4166666666667</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0</v>
+        <v>468.68333333333334</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0</v>
+        <v>549.2</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0</v>
+        <v>217.03333333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0</v>
+        <v>368.03333333333336</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0</v>
+        <v>945.8666666666667</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0</v>
+        <v>385.0833333333333</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0</v>
+        <v>121.4</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0</v>
+        <v>308.7</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0</v>
+        <v>507.18333333333334</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0</v>
+        <v>398.1666666666667</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0</v>
+        <v>365.21666666666664</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0</v>
+        <v>468.26666666666665</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0</v>
+        <v>263.01666666666665</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0</v>
+        <v>333.85</v>
       </c>
       <c r="R39" t="n">
-        <v>0.0</v>
+        <v>432.1166666666667</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0</v>
+        <v>481.46666666666664</v>
       </c>
       <c r="T39" t="n">
-        <v>0.0</v>
+        <v>266.3</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0</v>
+        <v>133.98333333333332</v>
       </c>
       <c r="V39" t="n">
-        <v>0.0</v>
+        <v>488.68333333333334</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0</v>
+        <v>265.18333333333334</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0</v>
+        <v>427.3833333333333</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0</v>
+        <v>158.2</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.0</v>
+        <v>302.81666666666666</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.0</v>
+        <v>144.65</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.0</v>
+        <v>243.66666666666666</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.0</v>
+        <v>258.18333333333334</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.0</v>
+        <v>544.7166666666667</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.0</v>
+        <v>450.5833333333333</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.0</v>
+        <v>163.03333333333333</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.0</v>
+        <v>294.4166666666667</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.0</v>
+        <v>123.35</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.0</v>
+        <v>117.26666666666667</v>
       </c>
       <c r="AJ39" t="n">
         <v>0.0</v>
@@ -6609,46 +6609,46 @@
         <v>0.0</v>
       </c>
       <c r="AN39" t="n">
-        <v>206.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO39" t="n">
-        <v>445.7</v>
+        <v>0.0</v>
       </c>
       <c r="AP39" t="n">
-        <v>216.33333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AQ39" t="n">
-        <v>348.01666666666665</v>
+        <v>0.0</v>
       </c>
       <c r="AR39" t="n">
-        <v>313.01666666666665</v>
+        <v>0.0</v>
       </c>
       <c r="AS39" t="n">
-        <v>291.8833333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AT39" t="n">
-        <v>393.43333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AU39" t="n">
-        <v>144.93333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AV39" t="n">
-        <v>71.2</v>
+        <v>0.0</v>
       </c>
       <c r="AW39" t="n">
-        <v>198.55</v>
+        <v>0.0</v>
       </c>
       <c r="AX39" t="n">
-        <v>227.06666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AY39" t="n">
-        <v>673.9666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AZ39" t="n">
-        <v>964.5666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="BA39" t="n">
-        <v>2951.516666666667</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -6656,106 +6656,106 @@
         <v>90</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0</v>
+        <v>183.78333333333333</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0</v>
+        <v>197.05</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0</v>
+        <v>281.31666666666666</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0</v>
+        <v>357.5</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>53.45</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0</v>
+        <v>254.35</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0</v>
+        <v>798.3666666666667</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0</v>
+        <v>391.1333333333333</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0</v>
+        <v>124.56666666666666</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0</v>
+        <v>195.01666666666668</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0</v>
+        <v>393.5</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0</v>
+        <v>293.25</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0</v>
+        <v>173.51666666666668</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0</v>
+        <v>276.56666666666666</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0</v>
+        <v>297.53333333333336</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.0</v>
+        <v>157.75</v>
       </c>
       <c r="R40" t="n">
-        <v>0.0</v>
+        <v>438.1666666666667</v>
       </c>
       <c r="S40" t="n">
-        <v>0.0</v>
+        <v>289.76666666666665</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0</v>
+        <v>96.85</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0</v>
+        <v>244.28333333333333</v>
       </c>
       <c r="V40" t="n">
-        <v>0.0</v>
+        <v>375.0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0</v>
+        <v>271.23333333333335</v>
       </c>
       <c r="X40" t="n">
-        <v>0.0</v>
+        <v>235.68333333333334</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.0</v>
+        <v>166.55</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.0</v>
+        <v>308.8666666666667</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.0</v>
+        <v>196.66666666666666</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.0</v>
+        <v>250.46666666666667</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.0</v>
+        <v>70.53333333333333</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.0</v>
+        <v>353.01666666666665</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.0</v>
+        <v>263.21666666666664</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.0</v>
+        <v>240.18333333333334</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.0</v>
+        <v>248.66666666666666</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.0</v>
+        <v>226.43333333333334</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.0</v>
+        <v>99.65</v>
       </c>
       <c r="AJ40" t="n">
         <v>0.0</v>
@@ -6773,43 +6773,43 @@
         <v>0.0</v>
       </c>
       <c r="AO40" t="n">
-        <v>328.25</v>
+        <v>0.0</v>
       </c>
       <c r="AP40" t="n">
-        <v>137.45</v>
+        <v>0.0</v>
       </c>
       <c r="AQ40" t="n">
-        <v>354.1333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AR40" t="n">
-        <v>239.76666666666668</v>
+        <v>0.0</v>
       </c>
       <c r="AS40" t="n">
-        <v>98.21666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AT40" t="n">
-        <v>258.75</v>
+        <v>0.0</v>
       </c>
       <c r="AU40" t="n">
-        <v>78.96666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AV40" t="n">
-        <v>208.18333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AW40" t="n">
-        <v>124.93333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AX40" t="n">
-        <v>233.48333333333332</v>
+        <v>0.0</v>
       </c>
       <c r="AY40" t="n">
-        <v>551.35</v>
+        <v>0.0</v>
       </c>
       <c r="AZ40" t="n">
-        <v>770.9</v>
+        <v>0.0</v>
       </c>
       <c r="BA40" t="n">
-        <v>2834.0666666666666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -6937,40 +6937,40 @@
         <v>0.0</v>
       </c>
       <c r="AP41" t="n">
-        <v>413.06666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>492.1333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AR41" t="n">
-        <v>405.65</v>
+        <v>0.0</v>
       </c>
       <c r="AS41" t="n">
-        <v>270.53333333333336</v>
+        <v>0.0</v>
       </c>
       <c r="AT41" t="n">
-        <v>367.56666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AU41" t="n">
-        <v>319.5833333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AV41" t="n">
-        <v>467.3333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AW41" t="n">
-        <v>294.4166666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AX41" t="n">
-        <v>462.1166666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AY41" t="n">
-        <v>246.38333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AZ41" t="n">
-        <v>633.75</v>
+        <v>0.0</v>
       </c>
       <c r="BA41" t="n">
-        <v>2532.25</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -6978,106 +6978,106 @@
         <v>92</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0</v>
+        <v>133.68333333333334</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0</v>
+        <v>255.95</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0</v>
+        <v>337.8</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0</v>
+        <v>424.43333333333334</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>180.36666666666667</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0</v>
+        <v>342.75</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0</v>
+        <v>788.3333333333334</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0</v>
+        <v>270.25</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0</v>
+        <v>103.96666666666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0</v>
+        <v>289.25</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0</v>
+        <v>471.51666666666665</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0</v>
+        <v>240.61666666666667</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0</v>
+        <v>240.45</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0</v>
+        <v>343.5</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0</v>
+        <v>353.71666666666664</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.0</v>
+        <v>181.81666666666666</v>
       </c>
       <c r="R42" t="n">
-        <v>0.0</v>
+        <v>317.28333333333336</v>
       </c>
       <c r="S42" t="n">
-        <v>0.0</v>
+        <v>356.7</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0</v>
+        <v>96.8</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0</v>
+        <v>173.23333333333332</v>
       </c>
       <c r="V42" t="n">
-        <v>0.0</v>
+        <v>453.0</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0</v>
+        <v>150.35</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0</v>
+        <v>302.6166666666667</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.0</v>
+        <v>196.83333333333334</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.0</v>
+        <v>187.96666666666667</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.0</v>
+        <v>85.2</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.0</v>
+        <v>306.6333333333333</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.0</v>
+        <v>134.9</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.0</v>
+        <v>419.95</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.0</v>
+        <v>322.1166666666667</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.0</v>
+        <v>117.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.0</v>
+        <v>324.48333333333335</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.0</v>
+        <v>258.06666666666666</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.0</v>
+        <v>144.43333333333334</v>
       </c>
       <c r="AJ42" t="n">
         <v>0.0</v>
@@ -7101,37 +7101,37 @@
         <v>0.0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>231.46666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AR42" t="n">
-        <v>156.36666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AS42" t="n">
-        <v>174.31666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AT42" t="n">
-        <v>236.78333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AU42" t="n">
-        <v>148.68333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AV42" t="n">
-        <v>156.9</v>
+        <v>0.0</v>
       </c>
       <c r="AW42" t="n">
-        <v>201.88333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AX42" t="n">
-        <v>110.51666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AY42" t="n">
-        <v>624.7666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AZ42" t="n">
-        <v>844.3166666666667</v>
+        <v>0.0</v>
       </c>
       <c r="BA42" t="n">
-        <v>2920.25</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -7139,106 +7139,106 @@
         <v>93</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0</v>
+        <v>265.3666666666667</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0</v>
+        <v>250.33333333333334</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0</v>
+        <v>244.61666666666667</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0</v>
+        <v>393.9</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>362.95</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0</v>
+        <v>512.45</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0</v>
+        <v>655.95</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0</v>
+        <v>67.5</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0</v>
+        <v>288.9</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0</v>
+        <v>458.95</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0</v>
+        <v>554.1666666666666</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0</v>
+        <v>108.26666666666667</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0</v>
+        <v>320.56666666666666</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0</v>
+        <v>417.65</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0</v>
+        <v>540.0666666666667</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.0</v>
+        <v>256.65</v>
       </c>
       <c r="R43" t="n">
-        <v>0.0</v>
+        <v>118.45</v>
       </c>
       <c r="S43" t="n">
-        <v>0.0</v>
+        <v>430.2</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0</v>
+        <v>266.5</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0</v>
+        <v>281.5</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0</v>
+        <v>548.5333333333333</v>
       </c>
       <c r="W43" t="n">
-        <v>0.0</v>
+        <v>138.25</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0</v>
+        <v>376.78333333333336</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0</v>
+        <v>383.2</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.0</v>
+        <v>68.3</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.0</v>
+        <v>218.71666666666667</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.0</v>
+        <v>493.0</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.0</v>
+        <v>304.6</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.0</v>
+        <v>494.1166666666667</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.0</v>
+        <v>273.18333333333334</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.0</v>
+        <v>225.76666666666668</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.0</v>
+        <v>519.4166666666666</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.0</v>
+        <v>444.4166666666667</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.0</v>
+        <v>334.01666666666665</v>
       </c>
       <c r="AJ43" t="n">
         <v>0.0</v>
@@ -7265,34 +7265,34 @@
         <v>0.0</v>
       </c>
       <c r="AR43" t="n">
-        <v>187.98333333333332</v>
+        <v>0.0</v>
       </c>
       <c r="AS43" t="n">
-        <v>336.46666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="AT43" t="n">
-        <v>147.06666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AU43" t="n">
-        <v>355.93333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AV43" t="n">
-        <v>290.5</v>
+        <v>0.0</v>
       </c>
       <c r="AW43" t="n">
-        <v>409.55</v>
+        <v>0.0</v>
       </c>
       <c r="AX43" t="n">
-        <v>137.41666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AY43" t="n">
-        <v>694.5</v>
+        <v>0.0</v>
       </c>
       <c r="AZ43" t="n">
-        <v>902.7</v>
+        <v>0.0</v>
       </c>
       <c r="BA43" t="n">
-        <v>3012.1666666666665</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -7300,106 +7300,106 @@
         <v>94</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0</v>
+        <v>230.36666666666667</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0</v>
+        <v>172.03333333333333</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0</v>
+        <v>190.31666666666666</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0</v>
+        <v>339.6166666666667</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>248.56666666666666</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>398.06666666666666</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0</v>
+        <v>640.8666666666667</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0</v>
+        <v>241.91666666666666</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0</v>
+        <v>254.25</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0</v>
+        <v>344.5833333333333</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0</v>
+        <v>467.68333333333334</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0</v>
+        <v>93.15</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0</v>
+        <v>234.08333333333334</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0</v>
+        <v>331.1666666666667</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0</v>
+        <v>500.8</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.0</v>
+        <v>120.66666666666667</v>
       </c>
       <c r="R44" t="n">
-        <v>0.0</v>
+        <v>292.8666666666667</v>
       </c>
       <c r="S44" t="n">
-        <v>0.0</v>
+        <v>344.3666666666667</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0</v>
+        <v>152.13333333333333</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0</v>
+        <v>246.5</v>
       </c>
       <c r="V44" t="n">
-        <v>0.0</v>
+        <v>462.05</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0</v>
+        <v>138.98333333333332</v>
       </c>
       <c r="X44" t="n">
-        <v>0.0</v>
+        <v>290.3</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0</v>
+        <v>347.1166666666667</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.0</v>
+        <v>176.25</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.0</v>
+        <v>183.71666666666667</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.0</v>
+        <v>453.73333333333335</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.0</v>
+        <v>190.23333333333332</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.0</v>
+        <v>407.6333333333333</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.0</v>
+        <v>218.9</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.0</v>
+        <v>190.76666666666668</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.0</v>
+        <v>451.93333333333334</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.0</v>
+        <v>408.35</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.0</v>
+        <v>279.35</v>
       </c>
       <c r="AJ44" t="n">
         <v>0.0</v>
@@ -7429,31 +7429,31 @@
         <v>0.0</v>
       </c>
       <c r="AS44" t="n">
-        <v>224.55</v>
+        <v>0.0</v>
       </c>
       <c r="AT44" t="n">
-        <v>90.6</v>
+        <v>0.0</v>
       </c>
       <c r="AU44" t="n">
-        <v>281.0833333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AV44" t="n">
-        <v>257.15</v>
+        <v>0.0</v>
       </c>
       <c r="AW44" t="n">
-        <v>328.5833333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AX44" t="n">
-        <v>103.43333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AY44" t="n">
-        <v>610.6166666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AZ44" t="n">
-        <v>830.1666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="BA44" t="n">
-        <v>2928.2833333333333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -7593,28 +7593,28 @@
         <v>0.0</v>
       </c>
       <c r="AT45" t="n">
-        <v>214.16666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AU45" t="n">
-        <v>165.01666666666668</v>
+        <v>0.0</v>
       </c>
       <c r="AV45" t="n">
-        <v>270.73333333333335</v>
+        <v>0.0</v>
       </c>
       <c r="AW45" t="n">
-        <v>188.46666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AX45" t="n">
-        <v>220.2</v>
+        <v>0.0</v>
       </c>
       <c r="AY45" t="n">
-        <v>473.6666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AZ45" t="n">
-        <v>693.2166666666667</v>
+        <v>0.0</v>
       </c>
       <c r="BA45" t="n">
-        <v>2773.5666666666666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -7622,106 +7622,106 @@
         <v>96</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0</v>
+        <v>310.78333333333336</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>118.35</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0</v>
+        <v>112.63333333333334</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0</v>
+        <v>261.93333333333334</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>267.56666666666666</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0</v>
+        <v>398.8833333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0</v>
+        <v>563.35</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0</v>
+        <v>201.0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0</v>
+        <v>323.1333333333333</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0</v>
+        <v>349.18333333333334</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0</v>
+        <v>429.6166666666667</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0</v>
+        <v>54.9</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0</v>
+        <v>196.0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0</v>
+        <v>293.1</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0</v>
+        <v>519.8</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.0</v>
+        <v>132.1</v>
       </c>
       <c r="R46" t="n">
-        <v>0.0</v>
+        <v>251.95</v>
       </c>
       <c r="S46" t="n">
-        <v>0.0</v>
+        <v>298.21666666666664</v>
       </c>
       <c r="T46" t="n">
-        <v>0.0</v>
+        <v>217.56666666666666</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0</v>
+        <v>326.93333333333334</v>
       </c>
       <c r="V46" t="n">
-        <v>0.0</v>
+        <v>423.98333333333335</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0</v>
+        <v>219.4</v>
       </c>
       <c r="X46" t="n">
-        <v>0.0</v>
+        <v>252.21666666666667</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.0</v>
+        <v>388.81666666666666</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.0</v>
+        <v>202.98333333333332</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.0</v>
+        <v>264.15</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.0</v>
+        <v>472.71666666666664</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.0</v>
+        <v>204.28333333333333</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.0</v>
+        <v>365.81666666666666</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.0</v>
+        <v>141.2</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.0</v>
+        <v>271.2</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.0</v>
+        <v>470.9166666666667</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.0</v>
+        <v>448.68333333333334</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.0</v>
+        <v>341.55</v>
       </c>
       <c r="AJ46" t="n">
         <v>0.0</v>
@@ -7757,25 +7757,25 @@
         <v>0.0</v>
       </c>
       <c r="AU46" t="n">
-        <v>323.95</v>
+        <v>0.0</v>
       </c>
       <c r="AV46" t="n">
-        <v>338.28333333333336</v>
+        <v>0.0</v>
       </c>
       <c r="AW46" t="n">
-        <v>347.4</v>
+        <v>0.0</v>
       </c>
       <c r="AX46" t="n">
-        <v>184.58333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AY46" t="n">
-        <v>562.6166666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AZ46" t="n">
-        <v>768.8666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="BA46" t="n">
-        <v>2887.0833333333335</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -7783,106 +7783,106 @@
         <v>97</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0</v>
+        <v>138.63333333333333</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>260.6666666666667</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>344.93333333333334</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0</v>
+        <v>421.1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>90.06666666666666</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
+        <v>238.88333333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0</v>
+        <v>861.9833333333333</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0</v>
+        <v>391.95</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0</v>
+        <v>79.38333333333334</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0</v>
+        <v>179.55</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0</v>
+        <v>378.03333333333336</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0</v>
+        <v>356.85</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0</v>
+        <v>237.11666666666667</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0</v>
+        <v>340.1666666666667</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0</v>
+        <v>242.16666666666666</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0</v>
+        <v>221.36666666666667</v>
       </c>
       <c r="R47" t="n">
-        <v>0.0</v>
+        <v>438.98333333333335</v>
       </c>
       <c r="S47" t="n">
-        <v>0.0</v>
+        <v>353.3666666666667</v>
       </c>
       <c r="T47" t="n">
-        <v>0.0</v>
+        <v>160.46666666666667</v>
       </c>
       <c r="U47" t="n">
-        <v>0.0</v>
+        <v>199.11666666666667</v>
       </c>
       <c r="V47" t="n">
-        <v>0.0</v>
+        <v>359.53333333333336</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0</v>
+        <v>272.05</v>
       </c>
       <c r="X47" t="n">
-        <v>0.0</v>
+        <v>299.3</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.0</v>
+        <v>107.86666666666666</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.0</v>
+        <v>309.6666666666667</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.0</v>
+        <v>151.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.0</v>
+        <v>195.1</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.0</v>
+        <v>134.15</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.0</v>
+        <v>416.6333333333333</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.0</v>
+        <v>326.8333333333333</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.0</v>
+        <v>195.03333333333333</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.0</v>
+        <v>193.3</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.0</v>
+        <v>169.56666666666666</v>
       </c>
       <c r="AI47" t="n">
-        <v>0.0</v>
+        <v>38.583333333333336</v>
       </c>
       <c r="AJ47" t="n">
         <v>0.0</v>
@@ -7921,22 +7921,22 @@
         <v>0.0</v>
       </c>
       <c r="AV47" t="n">
-        <v>166.9</v>
+        <v>0.0</v>
       </c>
       <c r="AW47" t="n">
-        <v>72.23333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AX47" t="n">
-        <v>237.23333333333332</v>
+        <v>0.0</v>
       </c>
       <c r="AY47" t="n">
-        <v>547.6333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AZ47" t="n">
-        <v>836.4666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="BA47" t="n">
-        <v>2825.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -7944,106 +7944,106 @@
         <v>98</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0</v>
+        <v>355.7</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0</v>
+        <v>436.76666666666665</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0</v>
+        <v>523.9166666666666</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>235.61666666666667</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
+        <v>386.6166666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0</v>
+        <v>887.3</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0</v>
+        <v>326.51666666666665</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0</v>
+        <v>97.61666666666666</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0</v>
+        <v>327.28333333333336</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0</v>
+        <v>525.7666666666667</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0</v>
+        <v>339.6</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0</v>
+        <v>339.93333333333334</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0</v>
+        <v>442.98333333333335</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0</v>
+        <v>314.1333333333333</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.0</v>
+        <v>305.1166666666667</v>
       </c>
       <c r="R48" t="n">
-        <v>0.0</v>
+        <v>373.55</v>
       </c>
       <c r="S48" t="n">
-        <v>0.0</v>
+        <v>456.18333333333334</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0</v>
+        <v>237.56666666666666</v>
       </c>
       <c r="U48" t="n">
-        <v>0.0</v>
+        <v>71.9</v>
       </c>
       <c r="V48" t="n">
-        <v>0.0</v>
+        <v>507.26666666666665</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0</v>
+        <v>206.61666666666667</v>
       </c>
       <c r="X48" t="n">
-        <v>0.0</v>
+        <v>402.1</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.0</v>
+        <v>191.91666666666666</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.0</v>
+        <v>244.25</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.0</v>
+        <v>86.08333333333333</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.0</v>
+        <v>294.8</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.0</v>
+        <v>229.46666666666667</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.0</v>
+        <v>519.4333333333333</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.0</v>
+        <v>421.8666666666667</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.0</v>
+        <v>104.48333333333333</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.0</v>
+        <v>328.1333333333333</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.0</v>
+        <v>174.46666666666667</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.0</v>
+        <v>142.73333333333332</v>
       </c>
       <c r="AJ48" t="n">
         <v>0.0</v>
@@ -8085,19 +8085,19 @@
         <v>0.0</v>
       </c>
       <c r="AW48" t="n">
-        <v>216.25</v>
+        <v>0.0</v>
       </c>
       <c r="AX48" t="n">
-        <v>167.45</v>
+        <v>0.0</v>
       </c>
       <c r="AY48" t="n">
-        <v>691.65</v>
+        <v>0.0</v>
       </c>
       <c r="AZ48" t="n">
-        <v>937.6833333333333</v>
+        <v>0.0</v>
       </c>
       <c r="BA48" t="n">
-        <v>2969.2166666666667</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -8105,106 +8105,106 @@
         <v>99</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0</v>
+        <v>192.25</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0</v>
+        <v>284.1166666666667</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0</v>
+        <v>368.3833333333333</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0</v>
+        <v>444.55</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>108.2</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0</v>
+        <v>213.71666666666667</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0</v>
+        <v>885.4333333333333</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0</v>
+        <v>445.56666666666666</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0</v>
+        <v>133.01666666666668</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0</v>
+        <v>154.38333333333333</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0</v>
+        <v>352.8666666666667</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0</v>
+        <v>380.3</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0</v>
+        <v>260.56666666666666</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0</v>
+        <v>337.8666666666667</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0</v>
+        <v>222.95</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.0</v>
+        <v>244.81666666666666</v>
       </c>
       <c r="R49" t="n">
-        <v>0.0</v>
+        <v>492.6</v>
       </c>
       <c r="S49" t="n">
-        <v>0.0</v>
+        <v>376.81666666666666</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0</v>
+        <v>183.91666666666666</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0</v>
+        <v>252.75</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0</v>
+        <v>334.35</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0</v>
+        <v>325.6666666666667</v>
       </c>
       <c r="X49" t="n">
-        <v>0.0</v>
+        <v>322.75</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0</v>
+        <v>91.96666666666667</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.0</v>
+        <v>363.3</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.0</v>
+        <v>205.13333333333333</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.0</v>
+        <v>175.88333333333333</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.0</v>
+        <v>157.58333333333334</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.0</v>
+        <v>415.45</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.0</v>
+        <v>350.28333333333336</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.0</v>
+        <v>248.65</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.0</v>
+        <v>165.7</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.0</v>
+        <v>151.85</v>
       </c>
       <c r="AI49" t="n">
-        <v>0.0</v>
+        <v>92.2</v>
       </c>
       <c r="AJ49" t="n">
         <v>0.0</v>
@@ -8249,16 +8249,16 @@
         <v>0.0</v>
       </c>
       <c r="AX49" t="n">
-        <v>287.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY49" t="n">
-        <v>518.4333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AZ49" t="n">
-        <v>858.7</v>
+        <v>0.0</v>
       </c>
       <c r="BA49" t="n">
-        <v>2796.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
@@ -8266,106 +8266,106 @@
         <v>100</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0</v>
+        <v>144.41666666666666</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0</v>
+        <v>272.28333333333336</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0</v>
+        <v>283.06666666666666</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0</v>
+        <v>432.3666666666667</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>242.28333333333333</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0</v>
+        <v>391.78333333333336</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0</v>
+        <v>733.6</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0</v>
+        <v>173.43333333333334</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0</v>
+        <v>167.95</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0</v>
+        <v>338.3</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0</v>
+        <v>520.55</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0</v>
+        <v>185.9</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0</v>
+        <v>289.5</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0</v>
+        <v>392.55</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0</v>
+        <v>419.1333333333333</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0</v>
+        <v>219.2</v>
       </c>
       <c r="R50" t="n">
-        <v>0.0</v>
+        <v>220.48333333333332</v>
       </c>
       <c r="S50" t="n">
-        <v>0.0</v>
+        <v>405.75</v>
       </c>
       <c r="T50" t="n">
-        <v>0.0</v>
+        <v>145.85</v>
       </c>
       <c r="U50" t="n">
-        <v>0.0</v>
+        <v>160.56666666666666</v>
       </c>
       <c r="V50" t="n">
-        <v>0.0</v>
+        <v>502.05</v>
       </c>
       <c r="W50" t="n">
-        <v>0.0</v>
+        <v>52.8</v>
       </c>
       <c r="X50" t="n">
-        <v>0.0</v>
+        <v>351.6666666666667</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.0</v>
+        <v>262.25</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.0</v>
+        <v>91.16666666666667</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.0</v>
+        <v>97.76666666666667</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.0</v>
+        <v>372.05</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.0</v>
+        <v>183.95</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.0</v>
+        <v>469.0</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.0</v>
+        <v>311.6333333333333</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.0</v>
+        <v>104.83333333333333</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.0</v>
+        <v>398.46666666666664</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.0</v>
+        <v>323.48333333333335</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.0</v>
+        <v>213.06666666666666</v>
       </c>
       <c r="AJ50" t="n">
         <v>0.0</v>
@@ -8413,13 +8413,13 @@
         <v>0.0</v>
       </c>
       <c r="AY50" t="n">
-        <v>672.3166666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AZ50" t="n">
-        <v>891.8666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="BA50" t="n">
-        <v>2967.8</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -8427,106 +8427,106 @@
         <v>101</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0</v>
+        <v>667.6666666666666</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0</v>
+        <v>500.4166666666667</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0</v>
+        <v>478.9</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0</v>
+        <v>335.8</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0</v>
+        <v>516.75</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0</v>
+        <v>367.76666666666665</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0</v>
+        <v>1051.25</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0</v>
+        <v>748.4333333333333</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0</v>
+        <v>608.4166666666666</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0</v>
+        <v>383.05</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0</v>
+        <v>204.1</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0</v>
+        <v>602.3166666666667</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0</v>
+        <v>419.28333333333336</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0</v>
+        <v>310.5</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0</v>
+        <v>719.8333333333334</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.0</v>
+        <v>529.6166666666667</v>
       </c>
       <c r="R51" t="n">
-        <v>0.0</v>
+        <v>799.3666666666667</v>
       </c>
       <c r="S51" t="n">
-        <v>0.0</v>
+        <v>294.21666666666664</v>
       </c>
       <c r="T51" t="n">
-        <v>0.0</v>
+        <v>531.4333333333333</v>
       </c>
       <c r="U51" t="n">
-        <v>0.0</v>
+        <v>728.15</v>
       </c>
       <c r="V51" t="n">
-        <v>0.0</v>
+        <v>293.7</v>
       </c>
       <c r="W51" t="n">
-        <v>0.0</v>
+        <v>708.3</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0</v>
+        <v>326.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.0</v>
+        <v>588.85</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.0</v>
+        <v>745.9166666666666</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.0</v>
+        <v>680.5333333333333</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.0</v>
+        <v>672.75</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.0</v>
+        <v>507.78333333333336</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.0</v>
+        <v>227.9</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.0</v>
+        <v>433.18333333333334</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.0</v>
+        <v>724.05</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.0</v>
+        <v>662.5833333333334</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.0</v>
+        <v>648.7166666666667</v>
       </c>
       <c r="AI51" t="n">
-        <v>0.0</v>
+        <v>567.6</v>
       </c>
       <c r="AJ51" t="n">
         <v>0.0</v>
@@ -8577,10 +8577,10 @@
         <v>0.0</v>
       </c>
       <c r="AZ51" t="n">
-        <v>400.25</v>
+        <v>0.0</v>
       </c>
       <c r="BA51" t="n">
-        <v>2758.116666666667</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -8588,106 +8588,106 @@
         <v>102</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0</v>
+        <v>913.6833333333333</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0</v>
+        <v>717.55</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0</v>
+        <v>685.15</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0</v>
+        <v>520.3833333333333</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0</v>
+        <v>779.7</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0</v>
+        <v>763.4</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0</v>
+        <v>1257.5</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0</v>
+        <v>956.6333333333333</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0</v>
+        <v>854.4666666666667</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0</v>
+        <v>778.6833333333333</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0</v>
+        <v>656.0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0</v>
+        <v>810.5333333333333</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0</v>
+        <v>650.9333333333333</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0</v>
+        <v>607.9333333333333</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0</v>
+        <v>1031.9333333333334</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.0</v>
+        <v>749.1666666666666</v>
       </c>
       <c r="R52" t="n">
-        <v>0.0</v>
+        <v>1007.5833333333334</v>
       </c>
       <c r="S52" t="n">
-        <v>0.0</v>
+        <v>505.23333333333335</v>
       </c>
       <c r="T52" t="n">
-        <v>0.0</v>
+        <v>750.9833333333333</v>
       </c>
       <c r="U52" t="n">
-        <v>0.0</v>
+        <v>974.1833333333333</v>
       </c>
       <c r="V52" t="n">
-        <v>0.0</v>
+        <v>689.35</v>
       </c>
       <c r="W52" t="n">
-        <v>0.0</v>
+        <v>927.8333333333334</v>
       </c>
       <c r="X52" t="n">
-        <v>0.0</v>
+        <v>546.0333333333333</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.0</v>
+        <v>900.95</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.0</v>
+        <v>958.6166666666667</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.0</v>
+        <v>922.0166666666667</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.0</v>
+        <v>984.8666666666667</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.0</v>
+        <v>727.3166666666667</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.0</v>
+        <v>520.1833333333333</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.0</v>
+        <v>639.4333333333333</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.0</v>
+        <v>948.5833333333334</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.0</v>
+        <v>983.0666666666667</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.0</v>
+        <v>960.8333333333334</v>
       </c>
       <c r="AI52" t="n">
-        <v>0.0</v>
+        <v>858.2166666666667</v>
       </c>
       <c r="AJ52" t="n">
         <v>0.0</v>
@@ -8741,7 +8741,7 @@
         <v>0.0</v>
       </c>
       <c r="BA52" t="n">
-        <v>3152.7833333333333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
@@ -8749,106 +8749,106 @@
         <v>103</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0</v>
+        <v>2945.2166666666667</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0</v>
+        <v>2818.0833333333335</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0</v>
+        <v>2863.233333333333</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0</v>
+        <v>2758.3333333333335</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0</v>
+        <v>2794.3</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0</v>
+        <v>2645.3166666666666</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0</v>
+        <v>3424.116666666667</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0</v>
+        <v>3066.1</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0</v>
+        <v>2885.983333333333</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0</v>
+        <v>2660.616666666667</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0</v>
+        <v>2590.766666666667</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0</v>
+        <v>2919.983333333333</v>
       </c>
       <c r="N53" t="n">
-        <v>0.0</v>
+        <v>2726.9</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0</v>
+        <v>2618.1</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0</v>
+        <v>2972.75</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.0</v>
+        <v>2847.2833333333333</v>
       </c>
       <c r="R53" t="n">
-        <v>0.0</v>
+        <v>3117.0333333333333</v>
       </c>
       <c r="S53" t="n">
-        <v>0.0</v>
+        <v>2678.5666666666666</v>
       </c>
       <c r="T53" t="n">
-        <v>0.0</v>
+        <v>2826.9166666666665</v>
       </c>
       <c r="U53" t="n">
-        <v>0.0</v>
+        <v>3005.7166666666667</v>
       </c>
       <c r="V53" t="n">
-        <v>0.0</v>
+        <v>2477.9333333333334</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0</v>
+        <v>3003.7833333333333</v>
       </c>
       <c r="X53" t="n">
-        <v>0.0</v>
+        <v>2679.5333333333333</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.0</v>
+        <v>2866.4</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.0</v>
+        <v>3041.4</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.0</v>
+        <v>2958.1</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.0</v>
+        <v>2950.3166666666666</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.0</v>
+        <v>2796.983333333333</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.0</v>
+        <v>2656.55</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.0</v>
+        <v>2817.5333333333333</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.0</v>
+        <v>3001.616666666667</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.0</v>
+        <v>2925.2833333333333</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.0</v>
+        <v>2926.2833333333333</v>
       </c>
       <c r="AI53" t="n">
-        <v>0.0</v>
+        <v>2845.1666666666665</v>
       </c>
       <c r="AJ53" t="n">
         <v>0.0</v>

--- a/Jon/TiemposCiudades.xlsx
+++ b/Jon/TiemposCiudades.xlsx
@@ -655,7 +655,7 @@
         <v>183.78333333333333</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0</v>
+        <v>440.21666666666664</v>
       </c>
       <c r="AP2" t="n">
         <v>133.68333333333334</v>
@@ -667,7 +667,7 @@
         <v>230.36666666666667</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0</v>
+        <v>247.33333333333334</v>
       </c>
       <c r="AT2" t="n">
         <v>310.78333333333336</v>
@@ -816,7 +816,7 @@
         <v>197.05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0</v>
+        <v>305.25</v>
       </c>
       <c r="AP3" t="n">
         <v>255.95</v>
@@ -828,7 +828,7 @@
         <v>172.03333333333333</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0</v>
+        <v>145.81666666666666</v>
       </c>
       <c r="AT3" t="n">
         <v>118.35</v>
@@ -977,7 +977,7 @@
         <v>281.31666666666666</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0</v>
+        <v>351.03333333333336</v>
       </c>
       <c r="AP4" t="n">
         <v>337.8</v>
@@ -989,7 +989,7 @@
         <v>190.31666666666666</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0</v>
+        <v>230.08333333333334</v>
       </c>
       <c r="AT4" t="n">
         <v>112.63333333333334</v>
@@ -1138,7 +1138,7 @@
         <v>357.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0</v>
+        <v>246.13333333333333</v>
       </c>
       <c r="AP5" t="n">
         <v>424.43333333333334</v>
@@ -1150,7 +1150,7 @@
         <v>339.6166666666667</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0</v>
+        <v>279.35</v>
       </c>
       <c r="AT5" t="n">
         <v>261.93333333333334</v>
@@ -1299,7 +1299,7 @@
         <v>53.45</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.0</v>
+        <v>289.3</v>
       </c>
       <c r="AP6" t="n">
         <v>180.36666666666667</v>
@@ -1311,7 +1311,7 @@
         <v>248.56666666666666</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.0</v>
+        <v>107.68333333333334</v>
       </c>
       <c r="AT6" t="n">
         <v>267.56666666666666</v>
@@ -1460,7 +1460,7 @@
         <v>254.35</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0</v>
+        <v>140.31666666666666</v>
       </c>
       <c r="AP7" t="n">
         <v>342.75</v>
@@ -1472,7 +1472,7 @@
         <v>398.06666666666666</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0</v>
+        <v>202.96666666666667</v>
       </c>
       <c r="AT7" t="n">
         <v>398.8833333333333</v>
@@ -1621,7 +1621,7 @@
         <v>798.3666666666667</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0</v>
+        <v>911.2833333333333</v>
       </c>
       <c r="AP8" t="n">
         <v>788.3333333333334</v>
@@ -1633,7 +1633,7 @@
         <v>640.8666666666667</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0</v>
+        <v>751.7833333333333</v>
       </c>
       <c r="AT8" t="n">
         <v>563.35</v>
@@ -1782,7 +1782,7 @@
         <v>391.1333333333333</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.0</v>
+        <v>553.25</v>
       </c>
       <c r="AP9" t="n">
         <v>270.25</v>
@@ -1794,7 +1794,7 @@
         <v>241.91666666666666</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.0</v>
+        <v>380.1</v>
       </c>
       <c r="AT9" t="n">
         <v>201.0</v>
@@ -1943,7 +1943,7 @@
         <v>124.56666666666666</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0</v>
+        <v>380.96666666666664</v>
       </c>
       <c r="AP10" t="n">
         <v>103.96666666666667</v>
@@ -1955,7 +1955,7 @@
         <v>254.25</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0</v>
+        <v>188.11666666666667</v>
       </c>
       <c r="AT10" t="n">
         <v>323.1333333333333</v>
@@ -2104,7 +2104,7 @@
         <v>195.01666666666668</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0</v>
+        <v>155.6</v>
       </c>
       <c r="AP11" t="n">
         <v>289.25</v>
@@ -2116,7 +2116,7 @@
         <v>344.5833333333333</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0</v>
+        <v>149.48333333333332</v>
       </c>
       <c r="AT11" t="n">
         <v>349.18333333333334</v>
@@ -2265,7 +2265,7 @@
         <v>393.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0</v>
+        <v>86.43333333333334</v>
       </c>
       <c r="AP12" t="n">
         <v>471.51666666666665</v>
@@ -2277,7 +2277,7 @@
         <v>467.68333333333334</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.0</v>
+        <v>331.73333333333335</v>
       </c>
       <c r="AT12" t="n">
         <v>429.6166666666667</v>
@@ -2426,7 +2426,7 @@
         <v>293.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0</v>
+        <v>407.15</v>
       </c>
       <c r="AP13" t="n">
         <v>240.61666666666667</v>
@@ -2438,7 +2438,7 @@
         <v>93.15</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0</v>
+        <v>246.65</v>
       </c>
       <c r="AT13" t="n">
         <v>54.9</v>
@@ -2587,7 +2587,7 @@
         <v>173.51666666666668</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0</v>
+        <v>214.05</v>
       </c>
       <c r="AP14" t="n">
         <v>240.45</v>
@@ -2599,7 +2599,7 @@
         <v>234.08333333333334</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.0</v>
+        <v>89.08333333333333</v>
       </c>
       <c r="AT14" t="n">
         <v>196.0</v>
@@ -2748,7 +2748,7 @@
         <v>276.56666666666666</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0</v>
+        <v>105.26666666666667</v>
       </c>
       <c r="AP15" t="n">
         <v>343.5</v>
@@ -2760,7 +2760,7 @@
         <v>331.1666666666667</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0</v>
+        <v>198.41666666666666</v>
       </c>
       <c r="AT15" t="n">
         <v>293.1</v>
@@ -2909,7 +2909,7 @@
         <v>297.53333333333336</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.0</v>
+        <v>492.3833333333333</v>
       </c>
       <c r="AP16" t="n">
         <v>353.71666666666664</v>
@@ -2921,7 +2921,7 @@
         <v>500.8</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.0</v>
+        <v>361.6166666666667</v>
       </c>
       <c r="AT16" t="n">
         <v>519.8</v>
@@ -3070,7 +3070,7 @@
         <v>157.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.0</v>
+        <v>334.45</v>
       </c>
       <c r="AP17" t="n">
         <v>181.81666666666666</v>
@@ -3082,7 +3082,7 @@
         <v>120.66666666666667</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.0</v>
+        <v>111.16666666666667</v>
       </c>
       <c r="AT17" t="n">
         <v>132.1</v>
@@ -3231,7 +3231,7 @@
         <v>438.1666666666667</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.0</v>
+        <v>604.2</v>
       </c>
       <c r="AP18" t="n">
         <v>317.28333333333336</v>
@@ -3243,7 +3243,7 @@
         <v>292.8666666666667</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.0</v>
+        <v>427.1333333333333</v>
       </c>
       <c r="AT18" t="n">
         <v>251.95</v>
@@ -3392,7 +3392,7 @@
         <v>289.76666666666665</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.0</v>
+        <v>166.35</v>
       </c>
       <c r="AP19" t="n">
         <v>356.7</v>
@@ -3404,7 +3404,7 @@
         <v>344.3666666666667</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.0</v>
+        <v>211.61666666666667</v>
       </c>
       <c r="AT19" t="n">
         <v>298.21666666666664</v>
@@ -3553,7 +3553,7 @@
         <v>96.85</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.0</v>
+        <v>321.9166666666667</v>
       </c>
       <c r="AP20" t="n">
         <v>96.8</v>
@@ -3565,7 +3565,7 @@
         <v>152.13333333333333</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.0</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="AT20" t="n">
         <v>217.56666666666666</v>
@@ -3714,7 +3714,7 @@
         <v>244.28333333333333</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.0</v>
+        <v>500.7</v>
       </c>
       <c r="AP21" t="n">
         <v>173.23333333333332</v>
@@ -3726,7 +3726,7 @@
         <v>246.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.0</v>
+        <v>307.81666666666666</v>
       </c>
       <c r="AT21" t="n">
         <v>326.93333333333334</v>
@@ -3875,7 +3875,7 @@
         <v>375.0</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.0</v>
+        <v>68.93333333333334</v>
       </c>
       <c r="AP22" t="n">
         <v>453.0</v>
@@ -3887,7 +3887,7 @@
         <v>462.05</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.0</v>
+        <v>313.23333333333335</v>
       </c>
       <c r="AT22" t="n">
         <v>423.98333333333335</v>
@@ -4036,7 +4036,7 @@
         <v>271.23333333333335</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.0</v>
+        <v>498.76666666666665</v>
       </c>
       <c r="AP23" t="n">
         <v>150.35</v>
@@ -4048,7 +4048,7 @@
         <v>138.98333333333332</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.0</v>
+        <v>260.2</v>
       </c>
       <c r="AT23" t="n">
         <v>219.4</v>
@@ -4197,7 +4197,7 @@
         <v>235.68333333333334</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.0</v>
+        <v>166.7</v>
       </c>
       <c r="AP24" t="n">
         <v>302.6166666666667</v>
@@ -4209,7 +4209,7 @@
         <v>290.3</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.0</v>
+        <v>157.53333333333333</v>
       </c>
       <c r="AT24" t="n">
         <v>252.21666666666667</v>
@@ -4358,7 +4358,7 @@
         <v>166.55</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.0</v>
+        <v>361.4</v>
       </c>
       <c r="AP25" t="n">
         <v>196.83333333333334</v>
@@ -4370,7 +4370,7 @@
         <v>347.1166666666667</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.0</v>
+        <v>230.63333333333333</v>
       </c>
       <c r="AT25" t="n">
         <v>388.81666666666666</v>
@@ -4519,7 +4519,7 @@
         <v>308.8666666666667</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.0</v>
+        <v>536.4</v>
       </c>
       <c r="AP26" t="n">
         <v>187.96666666666667</v>
@@ -4531,7 +4531,7 @@
         <v>176.25</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.0</v>
+        <v>297.8333333333333</v>
       </c>
       <c r="AT26" t="n">
         <v>202.98333333333332</v>
@@ -4680,7 +4680,7 @@
         <v>196.66666666666666</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.0</v>
+        <v>453.0833333333333</v>
       </c>
       <c r="AP27" t="n">
         <v>85.2</v>
@@ -4692,7 +4692,7 @@
         <v>183.71666666666667</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.0</v>
+        <v>254.36666666666667</v>
       </c>
       <c r="AT27" t="n">
         <v>264.15</v>
@@ -4841,7 +4841,7 @@
         <v>250.46666666666667</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.0</v>
+        <v>445.31666666666666</v>
       </c>
       <c r="AP28" t="n">
         <v>306.6333333333333</v>
@@ -4853,7 +4853,7 @@
         <v>453.73333333333335</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.0</v>
+        <v>314.55</v>
       </c>
       <c r="AT28" t="n">
         <v>472.71666666666664</v>
@@ -5002,7 +5002,7 @@
         <v>70.53333333333333</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.0</v>
+        <v>291.98333333333335</v>
       </c>
       <c r="AP29" t="n">
         <v>134.9</v>
@@ -5014,7 +5014,7 @@
         <v>190.23333333333332</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.0</v>
+        <v>56.36666666666667</v>
       </c>
       <c r="AT29" t="n">
         <v>204.28333333333333</v>
@@ -5163,7 +5163,7 @@
         <v>353.01666666666665</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.0</v>
+        <v>144.35</v>
       </c>
       <c r="AP30" t="n">
         <v>419.95</v>
@@ -5175,7 +5175,7 @@
         <v>407.6333333333333</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.0</v>
+        <v>274.8666666666667</v>
       </c>
       <c r="AT30" t="n">
         <v>365.81666666666666</v>
@@ -5324,7 +5324,7 @@
         <v>263.21666666666664</v>
       </c>
       <c r="AO31" t="n">
-        <v>0.0</v>
+        <v>305.31666666666666</v>
       </c>
       <c r="AP31" t="n">
         <v>322.1166666666667</v>
@@ -5336,7 +5336,7 @@
         <v>218.9</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.0</v>
+        <v>211.98333333333332</v>
       </c>
       <c r="AT31" t="n">
         <v>141.2</v>
@@ -5485,7 +5485,7 @@
         <v>240.18333333333334</v>
       </c>
       <c r="AO32" t="n">
-        <v>0.0</v>
+        <v>496.6166666666667</v>
       </c>
       <c r="AP32" t="n">
         <v>117.5</v>
@@ -5497,7 +5497,7 @@
         <v>190.76666666666668</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.0</v>
+        <v>280.93333333333334</v>
       </c>
       <c r="AT32" t="n">
         <v>271.2</v>
@@ -5646,7 +5646,7 @@
         <v>248.66666666666666</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.0</v>
+        <v>435.15</v>
       </c>
       <c r="AP33" t="n">
         <v>324.48333333333335</v>
@@ -5658,7 +5658,7 @@
         <v>451.93333333333334</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.0</v>
+        <v>312.75</v>
       </c>
       <c r="AT33" t="n">
         <v>470.9166666666667</v>
@@ -5807,7 +5807,7 @@
         <v>226.43333333333334</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.0</v>
+        <v>421.28333333333336</v>
       </c>
       <c r="AP34" t="n">
         <v>258.06666666666666</v>
@@ -5819,7 +5819,7 @@
         <v>408.35</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.0</v>
+        <v>290.51666666666665</v>
       </c>
       <c r="AT34" t="n">
         <v>448.68333333333334</v>
@@ -5968,7 +5968,7 @@
         <v>99.65</v>
       </c>
       <c r="AO35" t="n">
-        <v>0.0</v>
+        <v>340.1666666666667</v>
       </c>
       <c r="AP35" t="n">
         <v>144.43333333333334</v>
@@ -5980,7 +5980,7 @@
         <v>279.35</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.0</v>
+        <v>187.9</v>
       </c>
       <c r="AT35" t="n">
         <v>341.55</v>
@@ -6120,52 +6120,52 @@
         <v>2490.383333333333</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.0</v>
+        <v>2347.2</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.0</v>
+        <v>2539.5</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.0</v>
+        <v>2425.8166666666666</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.0</v>
+        <v>2119.75</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.0</v>
+        <v>2503.8333333333335</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.0</v>
+        <v>2599.366666666667</v>
       </c>
       <c r="AR36" t="n">
-        <v>0.0</v>
+        <v>2512.883333333333</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.0</v>
+        <v>2364.05</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.0</v>
+        <v>2474.8</v>
       </c>
       <c r="AU36" t="n">
-        <v>0.0</v>
+        <v>2410.35</v>
       </c>
       <c r="AV36" t="n">
-        <v>0.0</v>
+        <v>2558.1</v>
       </c>
       <c r="AW36" t="n">
-        <v>0.0</v>
+        <v>2385.1833333333334</v>
       </c>
       <c r="AX36" t="n">
-        <v>0.0</v>
+        <v>2552.866666666667</v>
       </c>
       <c r="AY36" t="n">
-        <v>0.0</v>
+        <v>2344.5333333333333</v>
       </c>
       <c r="AZ36" t="n">
-        <v>0.0</v>
+        <v>2740.1666666666665</v>
       </c>
       <c r="BA36" t="n">
-        <v>0.0</v>
+        <v>418.85</v>
       </c>
     </row>
     <row r="37">
@@ -6281,52 +6281,52 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.0</v>
+        <v>261.8333333333333</v>
       </c>
       <c r="AM37" t="n">
-        <v>0.0</v>
+        <v>318.21666666666664</v>
       </c>
       <c r="AN37" t="n">
-        <v>0.0</v>
+        <v>316.95</v>
       </c>
       <c r="AO37" t="n">
-        <v>0.0</v>
+        <v>457.7</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.0</v>
+        <v>392.78333333333336</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.0</v>
+        <v>587.7166666666667</v>
       </c>
       <c r="AR37" t="n">
-        <v>0.0</v>
+        <v>520.2166666666667</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.0</v>
+        <v>381.03333333333336</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.0</v>
+        <v>539.2166666666667</v>
       </c>
       <c r="AU37" t="n">
-        <v>0.0</v>
+        <v>261.5833333333333</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.0</v>
+        <v>369.3333333333333</v>
       </c>
       <c r="AW37" t="n">
-        <v>0.0</v>
+        <v>234.0</v>
       </c>
       <c r="AX37" t="n">
-        <v>0.0</v>
+        <v>466.76666666666665</v>
       </c>
       <c r="AY37" t="n">
-        <v>0.0</v>
+        <v>685.1333333333333</v>
       </c>
       <c r="AZ37" t="n">
-        <v>0.0</v>
+        <v>1051.35</v>
       </c>
       <c r="BA37" t="n">
-        <v>0.0</v>
+        <v>2903.116666666667</v>
       </c>
     </row>
     <row r="38">
@@ -6436,58 +6436,58 @@
         <v>97.38333333333334</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.0</v>
+        <v>2347.2</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.0</v>
+        <v>261.8333333333333</v>
       </c>
       <c r="AL38" t="n">
         <v>0.0</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.0</v>
+        <v>202.73333333333332</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.0</v>
+        <v>109.56666666666666</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.0</v>
+        <v>254.11666666666667</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.0</v>
+        <v>204.76666666666668</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.0</v>
+        <v>412.6</v>
       </c>
       <c r="AR38" t="n">
-        <v>0.0</v>
+        <v>304.68333333333334</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.0</v>
+        <v>165.05</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.0</v>
+        <v>323.6666666666667</v>
       </c>
       <c r="AU38" t="n">
-        <v>0.0</v>
+        <v>73.58333333333333</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.0</v>
+        <v>221.31666666666666</v>
       </c>
       <c r="AW38" t="n">
-        <v>0.0</v>
+        <v>49.233333333333334</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.0</v>
+        <v>291.65</v>
       </c>
       <c r="AY38" t="n">
-        <v>0.0</v>
+        <v>481.56666666666666</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0.0</v>
+        <v>835.8166666666667</v>
       </c>
       <c r="BA38" t="n">
-        <v>0.0</v>
+        <v>2759.116666666667</v>
       </c>
     </row>
     <row r="39">
@@ -6597,58 +6597,58 @@
         <v>117.26666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.0</v>
+        <v>2539.5</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.0</v>
+        <v>318.21666666666664</v>
       </c>
       <c r="AL39" t="n">
-        <v>0.0</v>
+        <v>202.73333333333332</v>
       </c>
       <c r="AM39" t="n">
         <v>0.0</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.0</v>
+        <v>206.0</v>
       </c>
       <c r="AO39" t="n">
-        <v>0.0</v>
+        <v>446.51666666666665</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.0</v>
+        <v>216.33333333333334</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.0</v>
+        <v>348.01666666666665</v>
       </c>
       <c r="AR39" t="n">
-        <v>0.0</v>
+        <v>313.01666666666665</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.0</v>
+        <v>294.25</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.0</v>
+        <v>393.43333333333334</v>
       </c>
       <c r="AU39" t="n">
-        <v>0.0</v>
+        <v>144.93333333333334</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.0</v>
+        <v>71.2</v>
       </c>
       <c r="AW39" t="n">
-        <v>0.0</v>
+        <v>198.55</v>
       </c>
       <c r="AX39" t="n">
-        <v>0.0</v>
+        <v>227.06666666666666</v>
       </c>
       <c r="AY39" t="n">
-        <v>0.0</v>
+        <v>673.9666666666667</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0.0</v>
+        <v>964.5666666666667</v>
       </c>
       <c r="BA39" t="n">
-        <v>0.0</v>
+        <v>2951.516666666667</v>
       </c>
     </row>
     <row r="40">
@@ -6758,58 +6758,58 @@
         <v>99.65</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.0</v>
+        <v>2425.8166666666666</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.0</v>
+        <v>316.95</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.0</v>
+        <v>109.56666666666666</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.0</v>
+        <v>206.0</v>
       </c>
       <c r="AN40" t="n">
         <v>0.0</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.0</v>
+        <v>329.06666666666666</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.0</v>
+        <v>137.45</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.0</v>
+        <v>354.1333333333333</v>
       </c>
       <c r="AR40" t="n">
-        <v>0.0</v>
+        <v>239.76666666666668</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.0</v>
+        <v>100.58333333333333</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.0</v>
+        <v>258.75</v>
       </c>
       <c r="AU40" t="n">
-        <v>0.0</v>
+        <v>78.96666666666667</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.0</v>
+        <v>208.18333333333334</v>
       </c>
       <c r="AW40" t="n">
-        <v>0.0</v>
+        <v>124.93333333333334</v>
       </c>
       <c r="AX40" t="n">
-        <v>0.0</v>
+        <v>233.48333333333332</v>
       </c>
       <c r="AY40" t="n">
-        <v>0.0</v>
+        <v>551.35</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0.0</v>
+        <v>770.9</v>
       </c>
       <c r="BA40" t="n">
-        <v>0.0</v>
+        <v>2834.0666666666666</v>
       </c>
     </row>
     <row r="41">
@@ -6817,160 +6817,160 @@
         <v>91</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0</v>
+        <v>440.21666666666664</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0</v>
+        <v>305.25</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0</v>
+        <v>351.03333333333336</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0</v>
+        <v>246.13333333333333</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>289.3</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0</v>
+        <v>140.31666666666666</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0</v>
+        <v>911.2833333333333</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0</v>
+        <v>553.25</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0</v>
+        <v>380.96666666666664</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0</v>
+        <v>155.6</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0</v>
+        <v>86.43333333333334</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0</v>
+        <v>407.15</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0</v>
+        <v>214.05</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0</v>
+        <v>105.26666666666667</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0</v>
+        <v>492.3833333333333</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.0</v>
+        <v>334.45</v>
       </c>
       <c r="R41" t="n">
-        <v>0.0</v>
+        <v>604.2</v>
       </c>
       <c r="S41" t="n">
-        <v>0.0</v>
+        <v>166.35</v>
       </c>
       <c r="T41" t="n">
-        <v>0.0</v>
+        <v>321.9166666666667</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0</v>
+        <v>500.7</v>
       </c>
       <c r="V41" t="n">
-        <v>0.0</v>
+        <v>68.93333333333334</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0</v>
+        <v>498.76666666666665</v>
       </c>
       <c r="X41" t="n">
-        <v>0.0</v>
+        <v>166.7</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.0</v>
+        <v>361.4</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.0</v>
+        <v>536.4</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.0</v>
+        <v>453.0833333333333</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.0</v>
+        <v>445.31666666666666</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.0</v>
+        <v>291.98333333333335</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.0</v>
+        <v>144.35</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.0</v>
+        <v>305.31666666666666</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.0</v>
+        <v>496.6166666666667</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.0</v>
+        <v>435.15</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.0</v>
+        <v>421.28333333333336</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.0</v>
+        <v>340.1666666666667</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.0</v>
+        <v>2119.75</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.0</v>
+        <v>457.7</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.0</v>
+        <v>254.11666666666667</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.0</v>
+        <v>446.51666666666665</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.0</v>
+        <v>329.06666666666666</v>
       </c>
       <c r="AO41" t="n">
         <v>0.0</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.0</v>
+        <v>412.1166666666667</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.0</v>
+        <v>499.35</v>
       </c>
       <c r="AR41" t="n">
-        <v>0.0</v>
+        <v>412.8666666666667</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.0</v>
+        <v>272.35</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.0</v>
+        <v>374.8</v>
       </c>
       <c r="AU41" t="n">
-        <v>0.0</v>
+        <v>318.65</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.0</v>
+        <v>466.3833333333333</v>
       </c>
       <c r="AW41" t="n">
-        <v>0.0</v>
+        <v>293.46666666666664</v>
       </c>
       <c r="AX41" t="n">
-        <v>0.0</v>
+        <v>461.1666666666667</v>
       </c>
       <c r="AY41" t="n">
-        <v>0.0</v>
+        <v>257.4166666666667</v>
       </c>
       <c r="AZ41" t="n">
-        <v>0.0</v>
+        <v>643.7333333333333</v>
       </c>
       <c r="BA41" t="n">
-        <v>0.0</v>
+        <v>2535.1833333333334</v>
       </c>
     </row>
     <row r="42">
@@ -7080,58 +7080,58 @@
         <v>144.43333333333334</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0.0</v>
+        <v>2503.8333333333335</v>
       </c>
       <c r="AK42" t="n">
-        <v>0.0</v>
+        <v>392.78333333333336</v>
       </c>
       <c r="AL42" t="n">
-        <v>0.0</v>
+        <v>204.76666666666668</v>
       </c>
       <c r="AM42" t="n">
-        <v>0.0</v>
+        <v>216.33333333333334</v>
       </c>
       <c r="AN42" t="n">
-        <v>0.0</v>
+        <v>137.45</v>
       </c>
       <c r="AO42" t="n">
-        <v>0.0</v>
+        <v>412.1166666666667</v>
       </c>
       <c r="AP42" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.0</v>
+        <v>231.46666666666667</v>
       </c>
       <c r="AR42" t="n">
-        <v>0.0</v>
+        <v>156.36666666666667</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.0</v>
+        <v>176.68333333333334</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.0</v>
+        <v>236.78333333333333</v>
       </c>
       <c r="AU42" t="n">
-        <v>0.0</v>
+        <v>148.68333333333334</v>
       </c>
       <c r="AV42" t="n">
-        <v>0.0</v>
+        <v>156.9</v>
       </c>
       <c r="AW42" t="n">
-        <v>0.0</v>
+        <v>201.88333333333333</v>
       </c>
       <c r="AX42" t="n">
-        <v>0.0</v>
+        <v>110.51666666666667</v>
       </c>
       <c r="AY42" t="n">
-        <v>0.0</v>
+        <v>624.7666666666667</v>
       </c>
       <c r="AZ42" t="n">
-        <v>0.0</v>
+        <v>844.3166666666667</v>
       </c>
       <c r="BA42" t="n">
-        <v>0.0</v>
+        <v>2920.25</v>
       </c>
     </row>
     <row r="43">
@@ -7241,58 +7241,58 @@
         <v>334.01666666666665</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0.0</v>
+        <v>2599.366666666667</v>
       </c>
       <c r="AK43" t="n">
-        <v>0.0</v>
+        <v>587.7166666666667</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.0</v>
+        <v>412.6</v>
       </c>
       <c r="AM43" t="n">
-        <v>0.0</v>
+        <v>348.01666666666665</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.0</v>
+        <v>354.1333333333333</v>
       </c>
       <c r="AO43" t="n">
-        <v>0.0</v>
+        <v>499.35</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.0</v>
+        <v>231.46666666666667</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.0</v>
       </c>
       <c r="AR43" t="n">
-        <v>0.0</v>
+        <v>187.98333333333332</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.0</v>
+        <v>338.8333333333333</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.0</v>
+        <v>147.06666666666666</v>
       </c>
       <c r="AU43" t="n">
-        <v>0.0</v>
+        <v>355.93333333333334</v>
       </c>
       <c r="AV43" t="n">
-        <v>0.0</v>
+        <v>290.5</v>
       </c>
       <c r="AW43" t="n">
-        <v>0.0</v>
+        <v>409.55</v>
       </c>
       <c r="AX43" t="n">
-        <v>0.0</v>
+        <v>137.41666666666666</v>
       </c>
       <c r="AY43" t="n">
-        <v>0.0</v>
+        <v>694.5</v>
       </c>
       <c r="AZ43" t="n">
-        <v>0.0</v>
+        <v>902.7</v>
       </c>
       <c r="BA43" t="n">
-        <v>0.0</v>
+        <v>3012.1666666666665</v>
       </c>
     </row>
     <row r="44">
@@ -7402,58 +7402,58 @@
         <v>279.35</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0.0</v>
+        <v>2512.883333333333</v>
       </c>
       <c r="AK44" t="n">
-        <v>0.0</v>
+        <v>520.2166666666667</v>
       </c>
       <c r="AL44" t="n">
-        <v>0.0</v>
+        <v>304.68333333333334</v>
       </c>
       <c r="AM44" t="n">
-        <v>0.0</v>
+        <v>313.01666666666665</v>
       </c>
       <c r="AN44" t="n">
-        <v>0.0</v>
+        <v>239.76666666666668</v>
       </c>
       <c r="AO44" t="n">
-        <v>0.0</v>
+        <v>412.8666666666667</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.0</v>
+        <v>156.36666666666667</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.0</v>
+        <v>187.98333333333332</v>
       </c>
       <c r="AR44" t="n">
         <v>0.0</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.0</v>
+        <v>226.91666666666666</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.0</v>
+        <v>90.6</v>
       </c>
       <c r="AU44" t="n">
-        <v>0.0</v>
+        <v>281.0833333333333</v>
       </c>
       <c r="AV44" t="n">
-        <v>0.0</v>
+        <v>257.15</v>
       </c>
       <c r="AW44" t="n">
-        <v>0.0</v>
+        <v>328.5833333333333</v>
       </c>
       <c r="AX44" t="n">
-        <v>0.0</v>
+        <v>103.43333333333334</v>
       </c>
       <c r="AY44" t="n">
-        <v>0.0</v>
+        <v>610.6166666666667</v>
       </c>
       <c r="AZ44" t="n">
-        <v>0.0</v>
+        <v>830.1666666666666</v>
       </c>
       <c r="BA44" t="n">
-        <v>0.0</v>
+        <v>2928.2833333333333</v>
       </c>
     </row>
     <row r="45">
@@ -7461,160 +7461,160 @@
         <v>95</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0</v>
+        <v>247.33333333333334</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0</v>
+        <v>145.81666666666666</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>230.08333333333334</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0</v>
+        <v>279.35</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>107.68333333333334</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0</v>
+        <v>202.96666666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0</v>
+        <v>751.7833333333333</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0</v>
+        <v>380.1</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0</v>
+        <v>188.11666666666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0</v>
+        <v>149.48333333333332</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0</v>
+        <v>331.73333333333335</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0</v>
+        <v>246.65</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0</v>
+        <v>89.08333333333333</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0</v>
+        <v>198.41666666666666</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0</v>
+        <v>361.6166666666667</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0</v>
+        <v>111.16666666666667</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0</v>
+        <v>427.1333333333333</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0</v>
+        <v>211.61666666666667</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0</v>
+        <v>307.81666666666666</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0</v>
+        <v>313.23333333333335</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0</v>
+        <v>260.2</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0</v>
+        <v>157.53333333333333</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.0</v>
+        <v>230.63333333333333</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.0</v>
+        <v>297.8333333333333</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.0</v>
+        <v>254.36666666666667</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.0</v>
+        <v>314.55</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.0</v>
+        <v>56.36666666666667</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.0</v>
+        <v>274.8666666666667</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.0</v>
+        <v>211.98333333333332</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.0</v>
+        <v>280.93333333333334</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.0</v>
+        <v>312.75</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.0</v>
+        <v>290.51666666666665</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.0</v>
+        <v>187.9</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0.0</v>
+        <v>2364.05</v>
       </c>
       <c r="AK45" t="n">
-        <v>0.0</v>
+        <v>381.03333333333336</v>
       </c>
       <c r="AL45" t="n">
-        <v>0.0</v>
+        <v>165.05</v>
       </c>
       <c r="AM45" t="n">
-        <v>0.0</v>
+        <v>294.25</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.0</v>
+        <v>100.58333333333333</v>
       </c>
       <c r="AO45" t="n">
-        <v>0.0</v>
+        <v>272.35</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.0</v>
+        <v>176.68333333333334</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.0</v>
+        <v>338.8333333333333</v>
       </c>
       <c r="AR45" t="n">
-        <v>0.0</v>
+        <v>226.91666666666666</v>
       </c>
       <c r="AS45" t="n">
         <v>0.0</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.0</v>
+        <v>214.73333333333332</v>
       </c>
       <c r="AU45" t="n">
-        <v>0.0</v>
+        <v>165.55</v>
       </c>
       <c r="AV45" t="n">
-        <v>0.0</v>
+        <v>271.28333333333336</v>
       </c>
       <c r="AW45" t="n">
-        <v>0.0</v>
+        <v>189.0</v>
       </c>
       <c r="AX45" t="n">
-        <v>0.0</v>
+        <v>220.73333333333332</v>
       </c>
       <c r="AY45" t="n">
-        <v>0.0</v>
+        <v>473.95</v>
       </c>
       <c r="AZ45" t="n">
-        <v>0.0</v>
+        <v>693.4833333333333</v>
       </c>
       <c r="BA45" t="n">
-        <v>0.0</v>
+        <v>2775.95</v>
       </c>
     </row>
     <row r="46">
@@ -7724,58 +7724,58 @@
         <v>341.55</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.0</v>
+        <v>2474.8</v>
       </c>
       <c r="AK46" t="n">
-        <v>0.0</v>
+        <v>539.2166666666667</v>
       </c>
       <c r="AL46" t="n">
-        <v>0.0</v>
+        <v>323.6666666666667</v>
       </c>
       <c r="AM46" t="n">
-        <v>0.0</v>
+        <v>393.43333333333334</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.0</v>
+        <v>258.75</v>
       </c>
       <c r="AO46" t="n">
-        <v>0.0</v>
+        <v>374.8</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.0</v>
+        <v>236.78333333333333</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.0</v>
+        <v>147.06666666666666</v>
       </c>
       <c r="AR46" t="n">
-        <v>0.0</v>
+        <v>90.6</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.0</v>
+        <v>214.73333333333332</v>
       </c>
       <c r="AT46" t="n">
         <v>0.0</v>
       </c>
       <c r="AU46" t="n">
-        <v>0.0</v>
+        <v>323.95</v>
       </c>
       <c r="AV46" t="n">
-        <v>0.0</v>
+        <v>338.28333333333336</v>
       </c>
       <c r="AW46" t="n">
-        <v>0.0</v>
+        <v>347.4</v>
       </c>
       <c r="AX46" t="n">
-        <v>0.0</v>
+        <v>184.58333333333334</v>
       </c>
       <c r="AY46" t="n">
-        <v>0.0</v>
+        <v>562.6166666666667</v>
       </c>
       <c r="AZ46" t="n">
-        <v>0.0</v>
+        <v>768.8666666666667</v>
       </c>
       <c r="BA46" t="n">
-        <v>0.0</v>
+        <v>2887.0833333333335</v>
       </c>
     </row>
     <row r="47">
@@ -7885,58 +7885,58 @@
         <v>38.583333333333336</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.0</v>
+        <v>2410.35</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.0</v>
+        <v>261.5833333333333</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.0</v>
+        <v>73.58333333333333</v>
       </c>
       <c r="AM47" t="n">
-        <v>0.0</v>
+        <v>144.93333333333334</v>
       </c>
       <c r="AN47" t="n">
-        <v>0.0</v>
+        <v>78.96666666666667</v>
       </c>
       <c r="AO47" t="n">
-        <v>0.0</v>
+        <v>318.65</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.0</v>
+        <v>148.68333333333334</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.0</v>
+        <v>355.93333333333334</v>
       </c>
       <c r="AR47" t="n">
-        <v>0.0</v>
+        <v>281.0833333333333</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.0</v>
+        <v>165.55</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.0</v>
+        <v>323.95</v>
       </c>
       <c r="AU47" t="n">
         <v>0.0</v>
       </c>
       <c r="AV47" t="n">
-        <v>0.0</v>
+        <v>166.9</v>
       </c>
       <c r="AW47" t="n">
-        <v>0.0</v>
+        <v>72.23333333333333</v>
       </c>
       <c r="AX47" t="n">
-        <v>0.0</v>
+        <v>237.23333333333332</v>
       </c>
       <c r="AY47" t="n">
-        <v>0.0</v>
+        <v>547.6333333333333</v>
       </c>
       <c r="AZ47" t="n">
-        <v>0.0</v>
+        <v>836.4666666666667</v>
       </c>
       <c r="BA47" t="n">
-        <v>0.0</v>
+        <v>2825.2</v>
       </c>
     </row>
     <row r="48">
@@ -8046,58 +8046,58 @@
         <v>142.73333333333332</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0.0</v>
+        <v>2558.1</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.0</v>
+        <v>369.3333333333333</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.0</v>
+        <v>221.31666666666666</v>
       </c>
       <c r="AM48" t="n">
-        <v>0.0</v>
+        <v>71.2</v>
       </c>
       <c r="AN48" t="n">
-        <v>0.0</v>
+        <v>208.18333333333334</v>
       </c>
       <c r="AO48" t="n">
-        <v>0.0</v>
+        <v>466.3833333333333</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.0</v>
+        <v>156.9</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.0</v>
+        <v>290.5</v>
       </c>
       <c r="AR48" t="n">
-        <v>0.0</v>
+        <v>257.15</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.0</v>
+        <v>271.28333333333336</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.0</v>
+        <v>338.28333333333336</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.0</v>
+        <v>166.9</v>
       </c>
       <c r="AV48" t="n">
         <v>0.0</v>
       </c>
       <c r="AW48" t="n">
-        <v>0.0</v>
+        <v>216.25</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.0</v>
+        <v>167.45</v>
       </c>
       <c r="AY48" t="n">
-        <v>0.0</v>
+        <v>691.65</v>
       </c>
       <c r="AZ48" t="n">
-        <v>0.0</v>
+        <v>937.6833333333333</v>
       </c>
       <c r="BA48" t="n">
-        <v>0.0</v>
+        <v>2969.2166666666667</v>
       </c>
     </row>
     <row r="49">
@@ -8207,58 +8207,58 @@
         <v>92.2</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0.0</v>
+        <v>2385.1833333333334</v>
       </c>
       <c r="AK49" t="n">
-        <v>0.0</v>
+        <v>234.0</v>
       </c>
       <c r="AL49" t="n">
-        <v>0.0</v>
+        <v>49.233333333333334</v>
       </c>
       <c r="AM49" t="n">
-        <v>0.0</v>
+        <v>198.55</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.0</v>
+        <v>124.93333333333334</v>
       </c>
       <c r="AO49" t="n">
-        <v>0.0</v>
+        <v>293.46666666666664</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.0</v>
+        <v>201.88333333333333</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.0</v>
+        <v>409.55</v>
       </c>
       <c r="AR49" t="n">
-        <v>0.0</v>
+        <v>328.5833333333333</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.0</v>
+        <v>189.0</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.0</v>
+        <v>347.4</v>
       </c>
       <c r="AU49" t="n">
-        <v>0.0</v>
+        <v>72.23333333333333</v>
       </c>
       <c r="AV49" t="n">
-        <v>0.0</v>
+        <v>216.25</v>
       </c>
       <c r="AW49" t="n">
         <v>0.0</v>
       </c>
       <c r="AX49" t="n">
-        <v>0.0</v>
+        <v>287.0</v>
       </c>
       <c r="AY49" t="n">
-        <v>0.0</v>
+        <v>518.4333333333333</v>
       </c>
       <c r="AZ49" t="n">
-        <v>0.0</v>
+        <v>858.7</v>
       </c>
       <c r="BA49" t="n">
-        <v>0.0</v>
+        <v>2796.0</v>
       </c>
     </row>
     <row r="50">
@@ -8368,58 +8368,58 @@
         <v>213.06666666666666</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0.0</v>
+        <v>2552.866666666667</v>
       </c>
       <c r="AK50" t="n">
-        <v>0.0</v>
+        <v>466.76666666666665</v>
       </c>
       <c r="AL50" t="n">
-        <v>0.0</v>
+        <v>291.65</v>
       </c>
       <c r="AM50" t="n">
-        <v>0.0</v>
+        <v>227.06666666666666</v>
       </c>
       <c r="AN50" t="n">
-        <v>0.0</v>
+        <v>233.48333333333332</v>
       </c>
       <c r="AO50" t="n">
-        <v>0.0</v>
+        <v>461.1666666666667</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.0</v>
+        <v>110.51666666666667</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.0</v>
+        <v>137.41666666666666</v>
       </c>
       <c r="AR50" t="n">
-        <v>0.0</v>
+        <v>103.43333333333334</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.0</v>
+        <v>220.73333333333332</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.0</v>
+        <v>184.58333333333334</v>
       </c>
       <c r="AU50" t="n">
-        <v>0.0</v>
+        <v>237.23333333333332</v>
       </c>
       <c r="AV50" t="n">
-        <v>0.0</v>
+        <v>167.45</v>
       </c>
       <c r="AW50" t="n">
-        <v>0.0</v>
+        <v>287.0</v>
       </c>
       <c r="AX50" t="n">
         <v>0.0</v>
       </c>
       <c r="AY50" t="n">
-        <v>0.0</v>
+        <v>672.3166666666667</v>
       </c>
       <c r="AZ50" t="n">
-        <v>0.0</v>
+        <v>891.8666666666667</v>
       </c>
       <c r="BA50" t="n">
-        <v>0.0</v>
+        <v>2967.8</v>
       </c>
     </row>
     <row r="51">
@@ -8529,58 +8529,58 @@
         <v>567.6</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0.0</v>
+        <v>2344.5333333333333</v>
       </c>
       <c r="AK51" t="n">
-        <v>0.0</v>
+        <v>685.1333333333333</v>
       </c>
       <c r="AL51" t="n">
-        <v>0.0</v>
+        <v>481.56666666666666</v>
       </c>
       <c r="AM51" t="n">
-        <v>0.0</v>
+        <v>673.9666666666667</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.0</v>
+        <v>551.35</v>
       </c>
       <c r="AO51" t="n">
-        <v>0.0</v>
+        <v>257.4166666666667</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.0</v>
+        <v>624.7666666666667</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.0</v>
+        <v>694.5</v>
       </c>
       <c r="AR51" t="n">
-        <v>0.0</v>
+        <v>610.6166666666667</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.0</v>
+        <v>473.95</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.0</v>
+        <v>562.6166666666667</v>
       </c>
       <c r="AU51" t="n">
-        <v>0.0</v>
+        <v>547.6333333333333</v>
       </c>
       <c r="AV51" t="n">
-        <v>0.0</v>
+        <v>691.65</v>
       </c>
       <c r="AW51" t="n">
-        <v>0.0</v>
+        <v>518.4333333333333</v>
       </c>
       <c r="AX51" t="n">
-        <v>0.0</v>
+        <v>672.3166666666667</v>
       </c>
       <c r="AY51" t="n">
         <v>0.0</v>
       </c>
       <c r="AZ51" t="n">
-        <v>0.0</v>
+        <v>400.25</v>
       </c>
       <c r="BA51" t="n">
-        <v>0.0</v>
+        <v>2758.116666666667</v>
       </c>
     </row>
     <row r="52">
@@ -8690,58 +8690,58 @@
         <v>858.2166666666667</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0.0</v>
+        <v>2740.1666666666665</v>
       </c>
       <c r="AK52" t="n">
-        <v>0.0</v>
+        <v>1051.35</v>
       </c>
       <c r="AL52" t="n">
-        <v>0.0</v>
+        <v>835.8166666666667</v>
       </c>
       <c r="AM52" t="n">
-        <v>0.0</v>
+        <v>964.5666666666667</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.0</v>
+        <v>770.9</v>
       </c>
       <c r="AO52" t="n">
-        <v>0.0</v>
+        <v>643.7333333333333</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.0</v>
+        <v>844.3166666666667</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.0</v>
+        <v>902.7</v>
       </c>
       <c r="AR52" t="n">
-        <v>0.0</v>
+        <v>830.1666666666666</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.0</v>
+        <v>693.4833333333333</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.0</v>
+        <v>768.8666666666667</v>
       </c>
       <c r="AU52" t="n">
-        <v>0.0</v>
+        <v>836.4666666666667</v>
       </c>
       <c r="AV52" t="n">
-        <v>0.0</v>
+        <v>937.6833333333333</v>
       </c>
       <c r="AW52" t="n">
-        <v>0.0</v>
+        <v>858.7</v>
       </c>
       <c r="AX52" t="n">
-        <v>0.0</v>
+        <v>891.8666666666667</v>
       </c>
       <c r="AY52" t="n">
-        <v>0.0</v>
+        <v>400.25</v>
       </c>
       <c r="AZ52" t="n">
         <v>0.0</v>
       </c>
       <c r="BA52" t="n">
-        <v>0.0</v>
+        <v>3152.7833333333333</v>
       </c>
     </row>
     <row r="53">
@@ -8851,55 +8851,55 @@
         <v>2845.1666666666665</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0.0</v>
+        <v>418.85</v>
       </c>
       <c r="AK53" t="n">
-        <v>0.0</v>
+        <v>2903.116666666667</v>
       </c>
       <c r="AL53" t="n">
-        <v>0.0</v>
+        <v>2759.116666666667</v>
       </c>
       <c r="AM53" t="n">
-        <v>0.0</v>
+        <v>2951.516666666667</v>
       </c>
       <c r="AN53" t="n">
-        <v>0.0</v>
+        <v>2834.0666666666666</v>
       </c>
       <c r="AO53" t="n">
-        <v>0.0</v>
+        <v>2535.1833333333334</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.0</v>
+        <v>2920.25</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.0</v>
+        <v>3012.1666666666665</v>
       </c>
       <c r="AR53" t="n">
-        <v>0.0</v>
+        <v>2928.2833333333333</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.0</v>
+        <v>2775.95</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.0</v>
+        <v>2887.0833333333335</v>
       </c>
       <c r="AU53" t="n">
-        <v>0.0</v>
+        <v>2825.2</v>
       </c>
       <c r="AV53" t="n">
-        <v>0.0</v>
+        <v>2969.2166666666667</v>
       </c>
       <c r="AW53" t="n">
-        <v>0.0</v>
+        <v>2796.0</v>
       </c>
       <c r="AX53" t="n">
-        <v>0.0</v>
+        <v>2967.8</v>
       </c>
       <c r="AY53" t="n">
-        <v>0.0</v>
+        <v>2758.116666666667</v>
       </c>
       <c r="AZ53" t="n">
-        <v>0.0</v>
+        <v>3152.7833333333333</v>
       </c>
       <c r="BA53" t="n">
         <v>0.0</v>
